--- a/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
+++ b/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CS633 - Term Project\Moudle 6 Deliverables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppevaccaro/Documents/GitHub/CS633---Term-Project/Moudle 6 Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="28035" windowHeight="15945" tabRatio="743" xr2:uid="{899C0D2E-80B1-AE45-A5B3-8AC8948BE8B6}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" tabRatio="743" xr2:uid="{899C0D2E-80B1-AE45-A5B3-8AC8948BE8B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Account - Log In" sheetId="2" r:id="rId1"/>
@@ -24,6 +24,49 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="E54" authorId="0" shapeId="0" xr:uid="{5DA66A2F-A58A-AD4F-AB58-704AAA37EA97}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Microsoft Office User:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>SPlit step 6 into its own test.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -656,7 +699,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -733,6 +776,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -877,20 +933,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -900,12 +962,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1689,20 +1745,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F8FB6F-9DA0-8A4F-82AF-6B6ADDDC0675}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F8FB6F-9DA0-8A4F-82AF-6B6ADDDC0675}">
   <dimension ref="B2:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:Q7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:Q53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.25" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="10.875" style="1"/>
+    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
@@ -1722,7 +1778,7 @@
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
@@ -1740,7 +1796,7 @@
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
@@ -1758,243 +1814,243 @@
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="20">
+      <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
       <c r="H8" s="18" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
-      <c r="K8" s="21">
+      <c r="K8" s="23">
         <v>43155</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
@@ -2014,7 +2070,7 @@
       <c r="P17" s="17"/>
       <c r="Q17" s="17"/>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
@@ -2032,7 +2088,7 @@
       <c r="P18" s="17"/>
       <c r="Q18" s="17"/>
     </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -2050,70 +2106,70 @@
       <c r="P19" s="17"/>
       <c r="Q19" s="17"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="15" t="s">
         <v>27</v>
       </c>
@@ -2130,10 +2186,10 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -2148,10 +2204,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -2166,7 +2222,7 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B26" s="17" t="s">
         <v>14</v>
       </c>
@@ -2186,7 +2242,7 @@
       <c r="P26" s="17"/>
       <c r="Q26" s="17"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -2204,7 +2260,7 @@
       <c r="P27" s="17"/>
       <c r="Q27" s="17"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
@@ -2222,7 +2278,7 @@
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B29" s="18" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2300,7 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -2262,7 +2318,7 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -2280,7 +2336,7 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
@@ -2298,7 +2354,7 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
       <c r="D33" s="18"/>
@@ -2316,7 +2372,7 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
       <c r="D34" s="18"/>
@@ -2334,7 +2390,7 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
       <c r="D35" s="18"/>
@@ -2352,7 +2408,7 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
@@ -2370,7 +2426,7 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
@@ -2388,7 +2444,7 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="18"/>
@@ -2406,7 +2462,7 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="18"/>
@@ -2424,7 +2480,7 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -2442,7 +2498,7 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
@@ -2460,7 +2516,7 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
@@ -2478,7 +2534,7 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
@@ -2496,7 +2552,7 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B44" s="18"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -2514,7 +2570,7 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
@@ -2532,7 +2588,7 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
@@ -2550,7 +2606,7 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
@@ -2568,7 +2624,7 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
@@ -2586,7 +2642,7 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
@@ -2604,7 +2660,7 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
@@ -2622,7 +2678,7 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
@@ -2640,7 +2696,7 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
@@ -2658,7 +2714,7 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
@@ -2676,7 +2732,7 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B54" s="18" t="s">
         <v>7</v>
       </c>
@@ -2698,7 +2754,7 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
       <c r="D55" s="18"/>
@@ -2716,7 +2772,7 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -2734,7 +2790,7 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="18"/>
@@ -2752,7 +2808,7 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
@@ -2770,7 +2826,7 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
@@ -2788,7 +2844,7 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
       <c r="D60" s="18"/>
@@ -2806,7 +2862,7 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
       <c r="D61" s="18"/>
@@ -2824,7 +2880,7 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
@@ -2842,7 +2898,7 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
@@ -2860,7 +2916,7 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
       <c r="D64" s="18"/>
@@ -2878,7 +2934,7 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
       <c r="D65" s="18"/>
@@ -2896,7 +2952,7 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
@@ -2914,7 +2970,7 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
       <c r="D67" s="18"/>
@@ -2932,7 +2988,7 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B68" s="18" t="s">
         <v>8</v>
       </c>
@@ -2954,7 +3010,7 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
       <c r="D69" s="18"/>
@@ -2972,7 +3028,7 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
       <c r="D70" s="18"/>
@@ -2990,7 +3046,7 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
@@ -3008,7 +3064,7 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
@@ -3026,7 +3082,7 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
@@ -3044,7 +3100,7 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
@@ -3062,7 +3118,7 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
@@ -3080,7 +3136,7 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
@@ -3098,7 +3154,7 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
@@ -3116,7 +3172,7 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
@@ -3134,7 +3190,7 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
@@ -3152,7 +3208,7 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
@@ -3170,7 +3226,7 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
@@ -3188,7 +3244,7 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B82" s="17" t="s">
         <v>9</v>
       </c>
@@ -3208,7 +3264,7 @@
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
     </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B83" s="17"/>
       <c r="C83" s="17"/>
       <c r="D83" s="17"/>
@@ -3226,7 +3282,7 @@
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
     </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B84" s="17"/>
       <c r="C84" s="17"/>
       <c r="D84" s="17"/>
@@ -3244,268 +3300,268 @@
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
     </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B85" s="18" t="s">
         <v>9</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
-      <c r="E85" s="23" t="s">
+      <c r="E85" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="19"/>
+      <c r="M85" s="19"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="19"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B86" s="18"/>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B87" s="18"/>
       <c r="C87" s="18"/>
       <c r="D87" s="18"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="23"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B88" s="18"/>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="23"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="19"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="19"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="19"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B89" s="18"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="19"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="19"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="19"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="19"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B91" s="18"/>
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="19"/>
+      <c r="M91" s="19"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="19"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="19"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B92" s="18"/>
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="23"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B93" s="18"/>
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="23"/>
-      <c r="P93" s="23"/>
-      <c r="Q93" s="23"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E93" s="19"/>
+      <c r="F93" s="19"/>
+      <c r="G93" s="19"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="19"/>
+      <c r="M93" s="19"/>
+      <c r="N93" s="19"/>
+      <c r="O93" s="19"/>
+      <c r="P93" s="19"/>
+      <c r="Q93" s="19"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="23"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B95" s="18"/>
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B96" s="18"/>
       <c r="C96" s="18"/>
       <c r="D96" s="18"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="19"/>
+      <c r="M96" s="19"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="19"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="19"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B97" s="18"/>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="23"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="19"/>
+      <c r="M97" s="19"/>
+      <c r="N97" s="19"/>
+      <c r="O97" s="19"/>
+      <c r="P97" s="19"/>
+      <c r="Q97" s="19"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="23"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B99" s="22" t="s">
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="19"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="19"/>
+      <c r="M98" s="19"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="19"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="19"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B99" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="15" t="s">
         <v>25</v>
       </c>
@@ -3522,10 +3578,10 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -3540,10 +3596,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -3560,6 +3616,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="E20:Q22"/>
+    <mergeCell ref="B2:Q4"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="E5:Q7"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:G10"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="K8:Q10"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:Q13"/>
+    <mergeCell ref="B14:D16"/>
+    <mergeCell ref="E14:Q16"/>
+    <mergeCell ref="B17:Q19"/>
     <mergeCell ref="B99:D101"/>
     <mergeCell ref="E99:Q101"/>
     <mergeCell ref="B23:D25"/>
@@ -3574,20 +3644,6 @@
     <mergeCell ref="B82:Q84"/>
     <mergeCell ref="B85:D98"/>
     <mergeCell ref="E85:Q98"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="E20:Q22"/>
-    <mergeCell ref="B2:Q4"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E5:Q7"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:G10"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="K8:Q10"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="E11:Q13"/>
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="E14:Q16"/>
-    <mergeCell ref="B17:Q19"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:Q16">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -3599,6 +3655,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3606,18 +3663,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2C3F409-C8ED-47DF-951A-9C4D3FE7CEE0}">
   <dimension ref="B2:T80"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A69" zoomScale="91" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W65" sqref="W65:W66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3638,7 +3695,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>18</v>
@@ -3661,7 +3718,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3682,7 +3739,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3703,7 +3760,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3724,7 +3781,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3745,7 +3802,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3766,7 +3823,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3787,7 +3844,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3808,7 +3865,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3829,7 +3886,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -3850,7 +3907,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -3871,7 +3928,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -3892,7 +3949,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3913,7 +3970,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -3934,7 +3991,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -3955,7 +4012,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -3976,7 +4033,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -3997,7 +4054,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4018,7 +4075,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4039,7 +4096,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4060,7 +4117,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4081,7 +4138,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4102,7 +4159,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4123,7 +4180,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4144,7 +4201,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4165,7 +4222,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4186,7 +4243,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="12" t="s">
         <v>19</v>
@@ -4208,7 +4265,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -4228,7 +4285,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -4248,7 +4305,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -4268,7 +4325,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -4288,7 +4345,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -4308,7 +4365,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -4328,7 +4385,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -4348,7 +4405,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -4368,7 +4425,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -4388,7 +4445,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -4408,7 +4465,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -4428,7 +4485,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -4448,7 +4505,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -4468,7 +4525,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -4488,7 +4545,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -4508,7 +4565,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -4528,7 +4585,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -4548,7 +4605,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -4568,7 +4625,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="8"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -4588,7 +4645,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -4608,7 +4665,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -4628,7 +4685,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="8"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -4648,7 +4705,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -4668,7 +4725,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="8"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -4688,7 +4745,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="8"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -4708,7 +4765,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -4728,7 +4785,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="11"/>
     </row>
-    <row r="57" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="12" t="s">
         <v>20</v>
@@ -4751,7 +4808,7 @@
       <c r="S57" s="3"/>
       <c r="T57" s="4"/>
     </row>
-    <row r="58" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="5"/>
       <c r="C58" s="7" t="s">
         <v>21</v>
@@ -4774,7 +4831,7 @@
       <c r="S58" s="7"/>
       <c r="T58" s="8"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="5"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -4795,7 +4852,7 @@
       <c r="S59" s="7"/>
       <c r="T59" s="8"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -4816,7 +4873,7 @@
       <c r="S60" s="7"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -4837,7 +4894,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -4858,7 +4915,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -4879,7 +4936,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4900,7 +4957,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4921,7 +4978,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -4942,7 +4999,7 @@
       <c r="S66" s="7"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -4963,7 +5020,7 @@
       <c r="S67" s="7"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -4984,7 +5041,7 @@
       <c r="S68" s="7"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -5005,7 +5062,7 @@
       <c r="S69" s="7"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -5026,7 +5083,7 @@
       <c r="S70" s="7"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -5047,7 +5104,7 @@
       <c r="S71" s="7"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -5068,7 +5125,7 @@
       <c r="S72" s="7"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -5089,7 +5146,7 @@
       <c r="S73" s="7"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -5110,7 +5167,7 @@
       <c r="S74" s="7"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -5131,7 +5188,7 @@
       <c r="S75" s="7"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -5152,7 +5209,7 @@
       <c r="S76" s="7"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -5173,7 +5230,7 @@
       <c r="S77" s="7"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -5194,7 +5251,7 @@
       <c r="S78" s="7"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -5215,7 +5272,7 @@
       <c r="S79" s="7"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="2:20" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" ht="408.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -5246,16 +5303,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC42612-5A39-284C-8C7A-1522FAA2D225}">
   <dimension ref="B3:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:Q20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100:Q102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="1"/>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
@@ -5275,7 +5332,7 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -5293,7 +5350,7 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -5311,12 +5368,12 @@
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
       <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
@@ -5333,10 +5390,10 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
     </row>
-    <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+    <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -5351,10 +5408,10 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
     </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -5369,22 +5426,22 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="26">
         <v>2</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="27">
         <v>43155</v>
       </c>
@@ -5395,16 +5452,16 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+    <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -5413,16 +5470,16 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
     </row>
-    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
@@ -5431,12 +5488,12 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="15" t="s">
         <v>30</v>
       </c>
@@ -5453,10 +5510,10 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -5471,10 +5528,10 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+    <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -5489,12 +5546,12 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="15" t="s">
         <v>24</v>
       </c>
@@ -5511,10 +5568,10 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -5529,10 +5586,10 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -5547,7 +5604,7 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
@@ -5567,7 +5624,7 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -5585,7 +5642,7 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -5603,12 +5660,12 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="15" t="s">
         <v>31</v>
       </c>
@@ -5625,10 +5682,10 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -5643,10 +5700,10 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -5661,12 +5718,12 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="15" t="s">
         <v>32</v>
       </c>
@@ -5683,10 +5740,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -5701,10 +5758,10 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -5719,7 +5776,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>14</v>
       </c>
@@ -5739,7 +5796,7 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
     </row>
-    <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -5757,7 +5814,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -5775,12 +5832,12 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
     </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
         <v>33</v>
       </c>
@@ -5797,10 +5854,10 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -5815,10 +5872,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -5833,10 +5890,10 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+    <row r="33" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -5851,10 +5908,10 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+    <row r="34" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -5869,10 +5926,10 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+    <row r="35" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -5887,10 +5944,10 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+    <row r="36" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -5905,10 +5962,10 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -5923,10 +5980,10 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+    <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -5941,10 +5998,10 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -5959,10 +6016,10 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -5977,10 +6034,10 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -5995,10 +6052,10 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -6013,10 +6070,10 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -6031,10 +6088,10 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -6049,10 +6106,10 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -6067,10 +6124,10 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -6085,10 +6142,10 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -6103,10 +6160,10 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -6121,10 +6178,10 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -6139,10 +6196,10 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -6157,10 +6214,10 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -6175,10 +6232,10 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -6193,10 +6250,10 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -6211,10 +6268,10 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -6229,12 +6286,12 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
+    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="15" t="s">
         <v>34</v>
       </c>
@@ -6251,10 +6308,10 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -6269,10 +6326,10 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -6287,10 +6344,10 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -6305,10 +6362,10 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -6323,10 +6380,10 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -6341,10 +6398,10 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -6359,10 +6416,10 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -6377,10 +6434,10 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -6395,10 +6452,10 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -6413,10 +6470,10 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+    <row r="65" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -6431,10 +6488,10 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+    <row r="66" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -6449,10 +6506,10 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+    <row r="67" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -6467,10 +6524,10 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+    <row r="68" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -6485,12 +6542,12 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="22" t="s">
+    <row r="69" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="15" t="s">
         <v>35</v>
       </c>
@@ -6507,10 +6564,10 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+    <row r="70" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -6525,10 +6582,10 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+    <row r="71" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -6543,10 +6600,10 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+    <row r="72" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -6561,10 +6618,10 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+    <row r="73" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -6579,10 +6636,10 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+    <row r="74" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -6597,10 +6654,10 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+    <row r="75" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -6615,10 +6672,10 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+    <row r="76" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -6633,10 +6690,10 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+    <row r="77" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -6651,10 +6708,10 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+    <row r="78" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -6669,10 +6726,10 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+    <row r="79" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -6687,10 +6744,10 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+    <row r="80" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -6705,10 +6762,10 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
+    <row r="81" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -6723,10 +6780,10 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+    <row r="82" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -6741,7 +6798,7 @@
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="24" t="s">
         <v>9</v>
       </c>
@@ -6761,7 +6818,7 @@
       <c r="P83" s="24"/>
       <c r="Q83" s="24"/>
     </row>
-    <row r="84" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -6779,7 +6836,7 @@
       <c r="P84" s="24"/>
       <c r="Q84" s="24"/>
     </row>
-    <row r="85" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -6797,12 +6854,12 @@
       <c r="P85" s="24"/>
       <c r="Q85" s="24"/>
     </row>
-    <row r="86" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="22" t="s">
+    <row r="86" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
       <c r="E86" s="15" t="s">
         <v>38</v>
       </c>
@@ -6819,10 +6876,10 @@
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+    <row r="87" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -6837,10 +6894,10 @@
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+    <row r="88" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -6855,10 +6912,10 @@
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+    <row r="89" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -6873,10 +6930,10 @@
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+    <row r="90" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -6891,10 +6948,10 @@
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+    <row r="91" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -6909,10 +6966,10 @@
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+    <row r="92" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
@@ -6927,10 +6984,10 @@
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+    <row r="93" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -6945,10 +7002,10 @@
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+    <row r="94" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
@@ -6963,10 +7020,10 @@
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+    <row r="95" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
@@ -6981,10 +7038,10 @@
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+    <row r="96" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
@@ -6999,10 +7056,10 @@
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+    <row r="97" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -7017,10 +7074,10 @@
       <c r="P97" s="15"/>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+    <row r="98" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
@@ -7035,10 +7092,10 @@
       <c r="P98" s="15"/>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+    <row r="99" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -7053,12 +7110,12 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="22" t="s">
+    <row r="100" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
       <c r="E100" s="15" t="s">
         <v>40</v>
       </c>
@@ -7075,10 +7132,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+    <row r="101" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -7093,10 +7150,10 @@
       <c r="P101" s="15"/>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+    <row r="102" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -7113,6 +7170,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B21:D23"/>
+    <mergeCell ref="E21:Q23"/>
+    <mergeCell ref="B3:Q5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="E6:Q8"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="H9:J11"/>
+    <mergeCell ref="K9:Q11"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="E12:Q14"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="E15:Q17"/>
+    <mergeCell ref="B18:Q20"/>
     <mergeCell ref="B100:D102"/>
     <mergeCell ref="E100:Q102"/>
     <mergeCell ref="B24:D26"/>
@@ -7127,20 +7198,6 @@
     <mergeCell ref="B83:Q85"/>
     <mergeCell ref="B86:D99"/>
     <mergeCell ref="E86:Q99"/>
-    <mergeCell ref="B21:D23"/>
-    <mergeCell ref="E21:Q23"/>
-    <mergeCell ref="B3:Q5"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="E6:Q8"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="H9:J11"/>
-    <mergeCell ref="K9:Q11"/>
-    <mergeCell ref="B12:D14"/>
-    <mergeCell ref="E12:Q14"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="E15:Q17"/>
-    <mergeCell ref="B18:Q20"/>
   </mergeCells>
   <conditionalFormatting sqref="E15:Q17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -7158,17 +7215,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9BF36E-D7ED-4F9F-A3EA-F7EF8EDA8FDF}">
   <dimension ref="B2:T92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -7189,7 +7246,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>36</v>
@@ -7212,7 +7269,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -7233,7 +7290,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -7254,7 +7311,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -7275,7 +7332,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -7296,7 +7353,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -7317,7 +7374,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -7338,7 +7395,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -7359,7 +7416,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -7380,7 +7437,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -7401,7 +7458,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -7422,7 +7479,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -7443,7 +7500,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -7464,7 +7521,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -7485,7 +7542,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -7506,7 +7563,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -7527,7 +7584,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -7548,7 +7605,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -7569,7 +7626,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -7590,7 +7647,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -7611,7 +7668,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -7632,7 +7689,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -7653,7 +7710,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -7674,7 +7731,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -7695,7 +7752,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -7716,7 +7773,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -7737,7 +7794,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="2:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -7758,7 +7815,7 @@
       <c r="S29" s="7"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -7779,7 +7836,7 @@
       <c r="S30" s="7"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="2:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -7800,7 +7857,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="12" t="s">
         <v>37</v>
@@ -7823,7 +7880,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -7844,7 +7901,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -7865,7 +7922,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -7886,7 +7943,7 @@
       <c r="S36" s="7"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -7907,7 +7964,7 @@
       <c r="S37" s="7"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -7928,7 +7985,7 @@
       <c r="S38" s="7"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -7949,7 +8006,7 @@
       <c r="S39" s="7"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -7970,7 +8027,7 @@
       <c r="S40" s="7"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -7991,7 +8048,7 @@
       <c r="S41" s="7"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -8012,7 +8069,7 @@
       <c r="S42" s="7"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -8033,7 +8090,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -8054,7 +8111,7 @@
       <c r="S44" s="7"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -8075,7 +8132,7 @@
       <c r="S45" s="7"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -8096,7 +8153,7 @@
       <c r="S46" s="7"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -8117,7 +8174,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -8138,7 +8195,7 @@
       <c r="S48" s="7"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -8159,7 +8216,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -8180,7 +8237,7 @@
       <c r="S50" s="7"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -8201,7 +8258,7 @@
       <c r="S51" s="7"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -8222,7 +8279,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -8243,7 +8300,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -8264,7 +8321,7 @@
       <c r="S54" s="7"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -8285,7 +8342,7 @@
       <c r="S55" s="7"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="2:20" ht="315.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:20" ht="315.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -8306,7 +8363,7 @@
       <c r="S56" s="7"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="2:20" ht="306" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:20" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -8327,7 +8384,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="11"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
         <v>39</v>
       </c>
@@ -8350,7 +8407,7 @@
       <c r="S59" s="3"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -8371,7 +8428,7 @@
       <c r="S60" s="7"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -8392,7 +8449,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -8413,7 +8470,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -8434,7 +8491,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -8455,7 +8512,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -8476,7 +8533,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -8497,7 +8554,7 @@
       <c r="S66" s="7"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -8518,7 +8575,7 @@
       <c r="S67" s="7"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -8539,7 +8596,7 @@
       <c r="S68" s="7"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -8560,7 +8617,7 @@
       <c r="S69" s="7"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -8581,7 +8638,7 @@
       <c r="S70" s="7"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -8602,7 +8659,7 @@
       <c r="S71" s="7"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -8623,7 +8680,7 @@
       <c r="S72" s="7"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -8644,7 +8701,7 @@
       <c r="S73" s="7"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -8665,7 +8722,7 @@
       <c r="S74" s="7"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -8686,7 +8743,7 @@
       <c r="S75" s="7"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -8707,7 +8764,7 @@
       <c r="S76" s="7"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -8728,7 +8785,7 @@
       <c r="S77" s="7"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -8749,7 +8806,7 @@
       <c r="S78" s="7"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -8770,7 +8827,7 @@
       <c r="S79" s="7"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -8791,7 +8848,7 @@
       <c r="S80" s="7"/>
       <c r="T80" s="8"/>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -8812,7 +8869,7 @@
       <c r="S81" s="7"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -8833,7 +8890,7 @@
       <c r="S82" s="7"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -8854,7 +8911,7 @@
       <c r="S83" s="7"/>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -8875,7 +8932,7 @@
       <c r="S84" s="7"/>
       <c r="T84" s="8"/>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -8896,7 +8953,7 @@
       <c r="S85" s="7"/>
       <c r="T85" s="8"/>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -8917,7 +8974,7 @@
       <c r="S86" s="7"/>
       <c r="T86" s="8"/>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -8938,7 +8995,7 @@
       <c r="S87" s="7"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -8959,7 +9016,7 @@
       <c r="S88" s="7"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -8980,7 +9037,7 @@
       <c r="S89" s="7"/>
       <c r="T89" s="8"/>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -9001,7 +9058,7 @@
       <c r="S90" s="7"/>
       <c r="T90" s="8"/>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -9022,7 +9079,7 @@
       <c r="S91" s="7"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>

--- a/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
+++ b/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppevaccaro/Documents/GitHub/CS633---Term-Project/Moudle 6 Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E81E12A-E987-4A47-8C12-E39776623B84}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78042DB5-D161-AC42-BD34-FFAAD9493323}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" tabRatio="743" xr2:uid="{899C0D2E-80B1-AE45-A5B3-8AC8948BE8B6}"/>
   </bookViews>
@@ -1853,12 +1853,12 @@
   <dimension ref="B2:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B5" sqref="B5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>

--- a/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
+++ b/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppevaccaro/Documents/GitHub/CS633---Term-Project/Moudle 6 Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78042DB5-D161-AC42-BD34-FFAAD9493323}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A872E-9968-0D4D-84D8-BA732FA21DB3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" tabRatio="743" xr2:uid="{899C0D2E-80B1-AE45-A5B3-8AC8948BE8B6}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" tabRatio="743" activeTab="5" xr2:uid="{899C0D2E-80B1-AE45-A5B3-8AC8948BE8B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Account (NEG)" sheetId="6" r:id="rId1"/>
@@ -778,7 +778,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,20 +1012,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1035,12 +1041,6 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1852,428 +1852,428 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51C85CF-D4EE-C84C-AB64-F1A36383887E}">
   <dimension ref="B2:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D7"/>
+    <sheetView topLeftCell="A52" zoomScale="60" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85:Q98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="18" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="18" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="20">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="22">
         <v>1</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="21">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="23">
         <v>43155</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="18" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="18" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="17" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="14" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="2:17" ht="42.75" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="14" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="15" t="s">
         <v>22</v>
       </c>
@@ -2290,10 +2290,10 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -2308,10 +2308,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -2326,68 +2326,68 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="2:17">
-      <c r="B29" s="18" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
         <v>23</v>
       </c>
@@ -2404,10 +2404,10 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="2:17">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -2422,10 +2422,10 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -2440,10 +2440,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -2458,10 +2458,10 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -2476,10 +2476,10 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -2494,10 +2494,10 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -2512,10 +2512,10 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -2530,10 +2530,10 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -2548,10 +2548,10 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -2566,10 +2566,10 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -2584,10 +2584,10 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -2602,10 +2602,10 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2620,10 +2620,10 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2638,10 +2638,10 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2656,10 +2656,10 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2674,10 +2674,10 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -2692,10 +2692,10 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2710,10 +2710,10 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -2728,10 +2728,10 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -2746,10 +2746,10 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -2764,10 +2764,10 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -2782,10 +2782,10 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -2800,10 +2800,10 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -2818,10 +2818,10 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -2836,12 +2836,12 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17">
-      <c r="B54" s="18" t="s">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
         <v>38</v>
       </c>
@@ -2858,10 +2858,10 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -2876,10 +2876,10 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -2894,10 +2894,10 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -2912,10 +2912,10 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -2930,10 +2930,10 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -2948,10 +2948,10 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -2966,10 +2966,10 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -2984,10 +2984,10 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -3002,10 +3002,10 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -3020,10 +3020,10 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -3038,10 +3038,10 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -3056,10 +3056,10 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -3074,10 +3074,10 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -3092,12 +3092,12 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17">
-      <c r="B68" s="18" t="s">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B68" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="15" t="s">
         <v>39</v>
       </c>
@@ -3114,10 +3114,10 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -3132,10 +3132,10 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -3150,10 +3150,10 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -3168,10 +3168,10 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -3186,10 +3186,10 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -3204,10 +3204,10 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -3222,10 +3222,10 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -3240,10 +3240,10 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17">
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -3258,10 +3258,10 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -3276,10 +3276,10 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -3294,10 +3294,10 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -3312,10 +3312,10 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -3330,10 +3330,10 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -3348,324 +3348,324 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17">
-      <c r="B82" s="17" t="s">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-    </row>
-    <row r="83" spans="2:17">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-    </row>
-    <row r="84" spans="2:17">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-    </row>
-    <row r="85" spans="2:17">
-      <c r="B85" s="18" t="s">
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="23" t="s">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-    </row>
-    <row r="86" spans="2:17">
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-    </row>
-    <row r="87" spans="2:17">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="23"/>
-    </row>
-    <row r="88" spans="2:17">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="23"/>
-    </row>
-    <row r="89" spans="2:17">
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-    </row>
-    <row r="90" spans="2:17">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
-    </row>
-    <row r="91" spans="2:17">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-    </row>
-    <row r="92" spans="2:17">
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="23"/>
-    </row>
-    <row r="93" spans="2:17">
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="23"/>
-      <c r="P93" s="23"/>
-      <c r="Q93" s="23"/>
-    </row>
-    <row r="94" spans="2:17">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="23"/>
-    </row>
-    <row r="95" spans="2:17">
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
-    </row>
-    <row r="96" spans="2:17">
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-    </row>
-    <row r="97" spans="2:17">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="23"/>
-    </row>
-    <row r="98" spans="2:17">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="23"/>
-    </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="22" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B99" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="15" t="s">
         <v>21</v>
       </c>
@@ -3682,10 +3682,10 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17">
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -3700,10 +3700,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17">
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -3720,11 +3720,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B68:D81"/>
-    <mergeCell ref="E68:Q81"/>
-    <mergeCell ref="B82:Q84"/>
-    <mergeCell ref="B85:D98"/>
-    <mergeCell ref="E85:Q98"/>
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="E20:Q22"/>
+    <mergeCell ref="B2:Q4"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="E5:Q7"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:G10"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="K8:Q10"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:Q13"/>
+    <mergeCell ref="B14:D16"/>
+    <mergeCell ref="E14:Q16"/>
+    <mergeCell ref="B17:Q19"/>
     <mergeCell ref="B99:D101"/>
     <mergeCell ref="E99:Q101"/>
     <mergeCell ref="B23:D25"/>
@@ -3734,20 +3743,11 @@
     <mergeCell ref="E29:Q53"/>
     <mergeCell ref="B54:D67"/>
     <mergeCell ref="E54:Q67"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="E11:Q13"/>
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="E14:Q16"/>
-    <mergeCell ref="B17:Q19"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="E20:Q22"/>
-    <mergeCell ref="B2:Q4"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E5:Q7"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:G10"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="K8:Q10"/>
+    <mergeCell ref="B68:D81"/>
+    <mergeCell ref="E68:Q81"/>
+    <mergeCell ref="B82:Q84"/>
+    <mergeCell ref="B85:D98"/>
+    <mergeCell ref="E85:Q98"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:Q16">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -3770,14 +3770,14 @@
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3798,7 +3798,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>37</v>
@@ -3821,7 +3821,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3842,7 +3842,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3863,7 +3863,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3884,7 +3884,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3905,7 +3905,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3926,7 +3926,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3947,7 +3947,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3968,7 +3968,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3989,7 +3989,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4010,7 +4010,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4031,7 +4031,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4052,7 +4052,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4073,7 +4073,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4094,7 +4094,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4115,7 +4115,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4136,7 +4136,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4157,7 +4157,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4178,7 +4178,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4199,7 +4199,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4220,7 +4220,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4241,7 +4241,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4262,7 +4262,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4283,7 +4283,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4304,7 +4304,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20" ht="409" customHeight="1">
+    <row r="27" spans="2:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4325,7 +4325,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4360,424 +4360,424 @@
       <selection activeCell="E8" sqref="E8:G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-    </row>
-    <row r="3" spans="2:17">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="18" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="B8" s="18" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="20">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="22">
         <v>2</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="18" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="21">
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="23">
         <v>43155</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-    </row>
-    <row r="9" spans="2:17">
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="B11" s="18" t="s">
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="16" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="B14" s="18" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="20"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B14" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="16" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16"/>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="16"/>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-      <c r="Q16" s="16"/>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" s="17" t="s">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" s="14" t="s">
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-    </row>
-    <row r="21" spans="2:17">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-    </row>
-    <row r="22" spans="2:17" ht="42.75" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-    </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="14" t="s">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="20"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
+    </row>
+    <row r="22" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="15" t="s">
         <v>22</v>
       </c>
@@ -4794,10 +4794,10 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17">
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -4812,10 +4812,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -4830,68 +4830,68 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
-      <c r="Q26" s="17"/>
-    </row>
-    <row r="27" spans="2:17">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="2:17">
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="2:17">
-      <c r="B29" s="18" t="s">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="15" t="s">
         <v>23</v>
       </c>
@@ -4908,10 +4908,10 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="2:17">
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -4926,10 +4926,10 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -4944,10 +4944,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -4962,10 +4962,10 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -4980,10 +4980,10 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -4998,10 +4998,10 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -5016,10 +5016,10 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -5034,10 +5034,10 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -5052,10 +5052,10 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -5070,10 +5070,10 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -5088,10 +5088,10 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -5106,10 +5106,10 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -5124,10 +5124,10 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -5142,10 +5142,10 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -5160,10 +5160,10 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -5178,10 +5178,10 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -5196,10 +5196,10 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -5214,10 +5214,10 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -5232,10 +5232,10 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -5250,10 +5250,10 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -5268,10 +5268,10 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -5286,10 +5286,10 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -5304,10 +5304,10 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -5322,10 +5322,10 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -5340,12 +5340,12 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17">
-      <c r="B54" s="18" t="s">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
       <c r="E54" s="15" t="s">
         <v>41</v>
       </c>
@@ -5362,10 +5362,10 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17">
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -5380,10 +5380,10 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -5398,10 +5398,10 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -5416,10 +5416,10 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -5434,10 +5434,10 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -5452,10 +5452,10 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -5470,10 +5470,10 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -5488,10 +5488,10 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -5506,10 +5506,10 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -5524,10 +5524,10 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -5542,10 +5542,10 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -5560,10 +5560,10 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -5578,10 +5578,10 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -5596,12 +5596,12 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17">
-      <c r="B68" s="18" t="s">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B68" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
       <c r="E68" s="15" t="s">
         <v>42</v>
       </c>
@@ -5618,10 +5618,10 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17">
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -5636,10 +5636,10 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -5654,10 +5654,10 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -5672,10 +5672,10 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -5690,10 +5690,10 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -5708,10 +5708,10 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -5726,10 +5726,10 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -5744,10 +5744,10 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17">
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -5762,10 +5762,10 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -5780,10 +5780,10 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -5798,10 +5798,10 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -5816,10 +5816,10 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -5834,10 +5834,10 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -5852,324 +5852,324 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17">
-      <c r="B82" s="17" t="s">
+    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B82" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="17"/>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="17"/>
-      <c r="P82" s="17"/>
-      <c r="Q82" s="17"/>
-    </row>
-    <row r="83" spans="2:17">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="17"/>
-      <c r="M83" s="17"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-    </row>
-    <row r="84" spans="2:17">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-    </row>
-    <row r="85" spans="2:17">
-      <c r="B85" s="18" t="s">
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="16"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="16"/>
+      <c r="O82" s="16"/>
+      <c r="P82" s="16"/>
+      <c r="Q82" s="16"/>
+    </row>
+    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="16"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="16"/>
+      <c r="O83" s="16"/>
+      <c r="P83" s="16"/>
+      <c r="Q83" s="16"/>
+    </row>
+    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="16"/>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16"/>
+      <c r="N84" s="16"/>
+      <c r="O84" s="16"/>
+      <c r="P84" s="16"/>
+      <c r="Q84" s="16"/>
+    </row>
+    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B85" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="18"/>
-      <c r="D85" s="18"/>
-      <c r="E85" s="23" t="s">
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="23"/>
-    </row>
-    <row r="86" spans="2:17">
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="23"/>
-    </row>
-    <row r="87" spans="2:17">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="23"/>
-    </row>
-    <row r="88" spans="2:17">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-      <c r="N88" s="23"/>
-      <c r="O88" s="23"/>
-      <c r="P88" s="23"/>
-      <c r="Q88" s="23"/>
-    </row>
-    <row r="89" spans="2:17">
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-      <c r="N89" s="23"/>
-      <c r="O89" s="23"/>
-      <c r="P89" s="23"/>
-      <c r="Q89" s="23"/>
-    </row>
-    <row r="90" spans="2:17">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="23"/>
-    </row>
-    <row r="91" spans="2:17">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="23"/>
-    </row>
-    <row r="92" spans="2:17">
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="23"/>
-    </row>
-    <row r="93" spans="2:17">
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-      <c r="N93" s="23"/>
-      <c r="O93" s="23"/>
-      <c r="P93" s="23"/>
-      <c r="Q93" s="23"/>
-    </row>
-    <row r="94" spans="2:17">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="23"/>
-    </row>
-    <row r="95" spans="2:17">
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="23"/>
-    </row>
-    <row r="96" spans="2:17">
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="23"/>
-    </row>
-    <row r="97" spans="2:17">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-      <c r="N97" s="23"/>
-      <c r="O97" s="23"/>
-      <c r="P97" s="23"/>
-      <c r="Q97" s="23"/>
-    </row>
-    <row r="98" spans="2:17">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="23"/>
-    </row>
-    <row r="99" spans="2:17">
-      <c r="B99" s="22" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
+    </row>
+    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+    </row>
+    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="17"/>
+      <c r="M87" s="17"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="17"/>
+      <c r="P87" s="17"/>
+      <c r="Q87" s="17"/>
+    </row>
+    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
+      <c r="P88" s="17"/>
+      <c r="Q88" s="17"/>
+    </row>
+    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
+    </row>
+    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="17"/>
+      <c r="M90" s="17"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="17"/>
+      <c r="P90" s="17"/>
+      <c r="Q90" s="17"/>
+    </row>
+    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
+    </row>
+    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="17"/>
+      <c r="M92" s="17"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="17"/>
+      <c r="P92" s="17"/>
+      <c r="Q92" s="17"/>
+    </row>
+    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="17"/>
+      <c r="M93" s="17"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="17"/>
+      <c r="P93" s="17"/>
+      <c r="Q93" s="17"/>
+    </row>
+    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
+    </row>
+    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
+    </row>
+    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+    </row>
+    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
+    </row>
+    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="17"/>
+      <c r="M98" s="17"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="17"/>
+      <c r="P98" s="17"/>
+      <c r="Q98" s="17"/>
+    </row>
+    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B99" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="15" t="s">
         <v>21</v>
       </c>
@@ -6186,10 +6186,10 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17">
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -6204,10 +6204,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17">
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -6224,6 +6224,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B20:D22"/>
+    <mergeCell ref="E20:Q22"/>
+    <mergeCell ref="B2:Q4"/>
+    <mergeCell ref="B5:D7"/>
+    <mergeCell ref="E5:Q7"/>
+    <mergeCell ref="B8:D10"/>
+    <mergeCell ref="E8:G10"/>
+    <mergeCell ref="H8:J10"/>
+    <mergeCell ref="K8:Q10"/>
+    <mergeCell ref="B11:D13"/>
+    <mergeCell ref="E11:Q13"/>
+    <mergeCell ref="B14:D16"/>
+    <mergeCell ref="E14:Q16"/>
+    <mergeCell ref="B17:Q19"/>
     <mergeCell ref="B99:D101"/>
     <mergeCell ref="E99:Q101"/>
     <mergeCell ref="B23:D25"/>
@@ -6238,20 +6252,6 @@
     <mergeCell ref="B82:Q84"/>
     <mergeCell ref="B85:D98"/>
     <mergeCell ref="E85:Q98"/>
-    <mergeCell ref="B20:D22"/>
-    <mergeCell ref="E20:Q22"/>
-    <mergeCell ref="B2:Q4"/>
-    <mergeCell ref="B5:D7"/>
-    <mergeCell ref="E5:Q7"/>
-    <mergeCell ref="B8:D10"/>
-    <mergeCell ref="E8:G10"/>
-    <mergeCell ref="H8:J10"/>
-    <mergeCell ref="K8:Q10"/>
-    <mergeCell ref="B11:D13"/>
-    <mergeCell ref="E11:Q13"/>
-    <mergeCell ref="B14:D16"/>
-    <mergeCell ref="E14:Q16"/>
-    <mergeCell ref="B17:Q19"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:Q16">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -6274,14 +6274,14 @@
       <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6302,7 +6302,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>17</v>
@@ -6325,7 +6325,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -6346,7 +6346,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -6367,7 +6367,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -6388,7 +6388,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -6409,7 +6409,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6430,7 +6430,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -6451,7 +6451,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -6472,7 +6472,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6493,7 +6493,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -6514,7 +6514,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6535,7 +6535,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6556,7 +6556,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6577,7 +6577,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6598,7 +6598,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6619,7 +6619,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6640,7 +6640,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6661,7 +6661,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6682,7 +6682,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6703,7 +6703,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6724,7 +6724,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6745,7 +6745,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6766,7 +6766,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -6787,7 +6787,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6808,7 +6808,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -6829,7 +6829,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6850,7 +6850,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="2:20">
+    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="12" t="s">
         <v>18</v>
@@ -6872,7 +6872,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -6892,7 +6892,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="2:20">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -6912,7 +6912,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="2:20">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="5"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -6932,7 +6932,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="2:19">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -6952,7 +6952,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="2:19">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -6972,7 +6972,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="2:19">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -6992,7 +6992,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="2:19">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -7012,7 +7012,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="2:19">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -7032,7 +7032,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="2:19">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -7052,7 +7052,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="2:19">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -7072,7 +7072,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="2:19">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -7092,7 +7092,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="2:19">
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -7112,7 +7112,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="2:19">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -7132,7 +7132,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="2:19">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -7152,7 +7152,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="2:19">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -7172,7 +7172,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="2:19">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -7192,7 +7192,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="2:19">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -7212,7 +7212,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="2:19">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -7232,7 +7232,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="8"/>
     </row>
-    <row r="48" spans="2:19">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -7252,7 +7252,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="2:19">
+    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -7272,7 +7272,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="2:19">
+    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -7292,7 +7292,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="8"/>
     </row>
-    <row r="51" spans="2:19">
+    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -7312,7 +7312,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="2:19">
+    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -7332,7 +7332,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="8"/>
     </row>
-    <row r="53" spans="2:19">
+    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -7352,7 +7352,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="8"/>
     </row>
-    <row r="54" spans="2:19">
+    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -7372,7 +7372,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="2:19">
+    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -7404,13 +7404,13 @@
   <sheetViews>
     <sheetView zoomScale="61" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17">
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="2:17">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -7448,7 +7448,7 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="2:17">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -7466,12 +7466,12 @@
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B6" s="22" t="s">
+    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
@@ -7488,10 +7488,10 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
     </row>
-    <row r="7" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+    <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -7506,10 +7506,10 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
     </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -7524,22 +7524,22 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B9" s="22" t="s">
+    <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="26">
         <v>3</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="27">
         <v>43155</v>
       </c>
@@ -7550,16 +7550,16 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
+    <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -7568,16 +7568,16 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
     </row>
-    <row r="11" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
+    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
@@ -7586,12 +7586,12 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B12" s="22" t="s">
+    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="15" t="s">
         <v>25</v>
       </c>
@@ -7608,10 +7608,10 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
+    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7626,10 +7626,10 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+    <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -7644,12 +7644,12 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="15" t="s">
         <v>20</v>
       </c>
@@ -7666,10 +7666,10 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -7684,10 +7684,10 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
+    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -7702,7 +7702,7 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="2:17" ht="15.75" customHeight="1">
+    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7722,7 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1">
+    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -7740,7 +7740,7 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1">
+    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -7758,12 +7758,12 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B21" s="14" t="s">
+    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="15" t="s">
         <v>26</v>
       </c>
@@ -7780,10 +7780,10 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
+    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -7798,10 +7798,10 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="2:17">
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -7816,12 +7816,12 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B24" s="14" t="s">
+    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="15" t="s">
         <v>27</v>
       </c>
@@ -7838,10 +7838,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
+    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -7856,10 +7856,10 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
+    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -7874,7 +7874,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" customHeight="1">
+    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="24" t="s">
         <v>14</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
     </row>
-    <row r="28" spans="2:17" ht="15.75" customHeight="1">
+    <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -7912,7 +7912,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" customHeight="1">
+    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -7930,12 +7930,12 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
     </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B30" s="22" t="s">
+    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="15" t="s">
         <v>28</v>
       </c>
@@ -7952,10 +7952,10 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
+    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -7970,10 +7970,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
+    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -7988,10 +7988,10 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
+    <row r="33" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -8006,10 +8006,10 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
+    <row r="34" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -8024,10 +8024,10 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
+    <row r="35" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -8042,10 +8042,10 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+    <row r="36" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -8060,10 +8060,10 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
+    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -8078,10 +8078,10 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
+    <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -8096,10 +8096,10 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
+    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -8114,10 +8114,10 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -8132,10 +8132,10 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -8150,10 +8150,10 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -8168,10 +8168,10 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -8186,10 +8186,10 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -8204,10 +8204,10 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -8222,10 +8222,10 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -8240,10 +8240,10 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -8258,10 +8258,10 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -8276,10 +8276,10 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -8294,10 +8294,10 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -8312,10 +8312,10 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -8330,10 +8330,10 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -8348,10 +8348,10 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -8366,10 +8366,10 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -8384,12 +8384,12 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B55" s="22" t="s">
+    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="15" t="s">
         <v>29</v>
       </c>
@@ -8406,10 +8406,10 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -8424,10 +8424,10 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -8442,10 +8442,10 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -8460,10 +8460,10 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -8478,10 +8478,10 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -8496,10 +8496,10 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -8514,10 +8514,10 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -8532,10 +8532,10 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -8550,10 +8550,10 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -8568,10 +8568,10 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
+    <row r="65" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -8586,10 +8586,10 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
+    <row r="66" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -8604,10 +8604,10 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
+    <row r="67" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -8622,10 +8622,10 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
+    <row r="68" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -8640,12 +8640,12 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B69" s="22" t="s">
+    <row r="69" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="15" t="s">
         <v>30</v>
       </c>
@@ -8662,10 +8662,10 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
+    <row r="70" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -8680,10 +8680,10 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
+    <row r="71" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -8698,10 +8698,10 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
+    <row r="72" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -8716,10 +8716,10 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
+    <row r="73" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -8734,10 +8734,10 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
+    <row r="74" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -8752,10 +8752,10 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
+    <row r="75" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -8770,10 +8770,10 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
+    <row r="76" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -8788,10 +8788,10 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B77" s="22"/>
-      <c r="C77" s="22"/>
-      <c r="D77" s="22"/>
+    <row r="77" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -8806,10 +8806,10 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B78" s="22"/>
-      <c r="C78" s="22"/>
-      <c r="D78" s="22"/>
+    <row r="78" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -8824,10 +8824,10 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
+    <row r="79" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -8842,10 +8842,10 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B80" s="22"/>
-      <c r="C80" s="22"/>
-      <c r="D80" s="22"/>
+    <row r="80" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -8860,10 +8860,10 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B81" s="22"/>
-      <c r="C81" s="22"/>
-      <c r="D81" s="22"/>
+    <row r="81" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -8878,10 +8878,10 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
+    <row r="82" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -8896,7 +8896,7 @@
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="2:17" ht="15.75" customHeight="1">
+    <row r="83" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="24" t="s">
         <v>9</v>
       </c>
@@ -8916,7 +8916,7 @@
       <c r="P83" s="24"/>
       <c r="Q83" s="24"/>
     </row>
-    <row r="84" spans="2:17" ht="15.75" customHeight="1">
+    <row r="84" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -8934,7 +8934,7 @@
       <c r="P84" s="24"/>
       <c r="Q84" s="24"/>
     </row>
-    <row r="85" spans="2:17" ht="15.75" customHeight="1">
+    <row r="85" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -8952,12 +8952,12 @@
       <c r="P85" s="24"/>
       <c r="Q85" s="24"/>
     </row>
-    <row r="86" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B86" s="22" t="s">
+    <row r="86" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B86" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="22"/>
-      <c r="D86" s="22"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
       <c r="E86" s="15" t="s">
         <v>33</v>
       </c>
@@ -8974,10 +8974,10 @@
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B87" s="22"/>
-      <c r="C87" s="22"/>
-      <c r="D87" s="22"/>
+    <row r="87" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -8992,10 +8992,10 @@
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B88" s="22"/>
-      <c r="C88" s="22"/>
-      <c r="D88" s="22"/>
+    <row r="88" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -9010,10 +9010,10 @@
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B89" s="22"/>
-      <c r="C89" s="22"/>
-      <c r="D89" s="22"/>
+    <row r="89" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -9028,10 +9028,10 @@
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B90" s="22"/>
-      <c r="C90" s="22"/>
-      <c r="D90" s="22"/>
+    <row r="90" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -9046,10 +9046,10 @@
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B91" s="22"/>
-      <c r="C91" s="22"/>
-      <c r="D91" s="22"/>
+    <row r="91" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -9064,10 +9064,10 @@
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B92" s="22"/>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
+    <row r="92" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
@@ -9082,10 +9082,10 @@
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
+    <row r="93" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -9100,10 +9100,10 @@
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B94" s="22"/>
-      <c r="C94" s="22"/>
-      <c r="D94" s="22"/>
+    <row r="94" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
@@ -9118,10 +9118,10 @@
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B95" s="22"/>
-      <c r="C95" s="22"/>
-      <c r="D95" s="22"/>
+    <row r="95" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
@@ -9136,10 +9136,10 @@
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
+    <row r="96" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
@@ -9154,10 +9154,10 @@
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B97" s="22"/>
-      <c r="C97" s="22"/>
-      <c r="D97" s="22"/>
+    <row r="97" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -9172,10 +9172,10 @@
       <c r="P97" s="15"/>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B98" s="22"/>
-      <c r="C98" s="22"/>
-      <c r="D98" s="22"/>
+    <row r="98" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
@@ -9190,10 +9190,10 @@
       <c r="P98" s="15"/>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B99" s="22"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
+    <row r="99" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -9208,12 +9208,12 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B100" s="22" t="s">
+    <row r="100" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B100" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
       <c r="E100" s="15" t="s">
         <v>35</v>
       </c>
@@ -9230,10 +9230,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B101" s="22"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
+    <row r="101" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -9248,10 +9248,10 @@
       <c r="P101" s="15"/>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="2:17" ht="15.75" customHeight="1">
-      <c r="B102" s="22"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="22"/>
+    <row r="102" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -9268,6 +9268,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B21:D23"/>
+    <mergeCell ref="E21:Q23"/>
+    <mergeCell ref="B3:Q5"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="E6:Q8"/>
+    <mergeCell ref="B9:D11"/>
+    <mergeCell ref="E9:G11"/>
+    <mergeCell ref="H9:J11"/>
+    <mergeCell ref="K9:Q11"/>
+    <mergeCell ref="B12:D14"/>
+    <mergeCell ref="E12:Q14"/>
+    <mergeCell ref="B15:D17"/>
+    <mergeCell ref="E15:Q17"/>
+    <mergeCell ref="B18:Q20"/>
     <mergeCell ref="B100:D102"/>
     <mergeCell ref="E100:Q102"/>
     <mergeCell ref="B24:D26"/>
@@ -9282,20 +9296,6 @@
     <mergeCell ref="B83:Q85"/>
     <mergeCell ref="B86:D99"/>
     <mergeCell ref="E86:Q99"/>
-    <mergeCell ref="B21:D23"/>
-    <mergeCell ref="E21:Q23"/>
-    <mergeCell ref="B3:Q5"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="E6:Q8"/>
-    <mergeCell ref="B9:D11"/>
-    <mergeCell ref="E9:G11"/>
-    <mergeCell ref="H9:J11"/>
-    <mergeCell ref="K9:Q11"/>
-    <mergeCell ref="B12:D14"/>
-    <mergeCell ref="E12:Q14"/>
-    <mergeCell ref="B15:D17"/>
-    <mergeCell ref="E15:Q17"/>
-    <mergeCell ref="B18:Q20"/>
   </mergeCells>
   <conditionalFormatting sqref="E15:Q17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -9313,17 +9313,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9BF36E-D7ED-4F9F-A3EA-F7EF8EDA8FDF}">
   <dimension ref="B2:T92"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9344,7 +9344,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
@@ -9367,7 +9367,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -9388,7 +9388,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -9409,7 +9409,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -9430,7 +9430,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -9451,7 +9451,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -9472,7 +9472,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -9493,7 +9493,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -9514,7 +9514,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -9535,7 +9535,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -9556,7 +9556,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9577,7 +9577,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20">
+    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -9598,7 +9598,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20">
+    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -9619,7 +9619,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -9640,7 +9640,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20">
+    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -9661,7 +9661,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20">
+    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -9682,7 +9682,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20">
+    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -9703,7 +9703,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20">
+    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -9724,7 +9724,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20">
+    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -9745,7 +9745,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20">
+    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -9766,7 +9766,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20">
+    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -9787,7 +9787,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20">
+    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -9808,7 +9808,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20">
+    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -9829,7 +9829,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20">
+    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -9850,7 +9850,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20">
+    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -9871,7 +9871,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="2:20">
+    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -9892,7 +9892,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="2:20" ht="66.75" customHeight="1">
+    <row r="29" spans="2:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -9913,7 +9913,7 @@
       <c r="S29" s="7"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="2:20">
+    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -9934,7 +9934,7 @@
       <c r="S30" s="7"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="2:20" ht="409.5" customHeight="1">
+    <row r="31" spans="2:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9955,7 +9955,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="33" spans="2:20">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="12" t="s">
         <v>32</v>
@@ -9978,7 +9978,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="2:20">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -9999,7 +9999,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="2:20">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -10020,7 +10020,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="2:20">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -10041,7 +10041,7 @@
       <c r="S36" s="7"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="2:20">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -10062,7 +10062,7 @@
       <c r="S37" s="7"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="2:20">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -10083,7 +10083,7 @@
       <c r="S38" s="7"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="2:20">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -10104,7 +10104,7 @@
       <c r="S39" s="7"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="2:20">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -10125,7 +10125,7 @@
       <c r="S40" s="7"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="2:20">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -10146,7 +10146,7 @@
       <c r="S41" s="7"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="2:20">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -10167,7 +10167,7 @@
       <c r="S42" s="7"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="2:20">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -10188,7 +10188,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="2:20">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -10209,7 +10209,7 @@
       <c r="S44" s="7"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="2:20">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10230,7 +10230,7 @@
       <c r="S45" s="7"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="2:20">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -10251,7 +10251,7 @@
       <c r="S46" s="7"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="2:20">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10272,7 +10272,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="2:20">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -10293,7 +10293,7 @@
       <c r="S48" s="7"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="2:20">
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -10314,7 +10314,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="2:20">
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -10335,7 +10335,7 @@
       <c r="S50" s="7"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="2:20">
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -10356,7 +10356,7 @@
       <c r="S51" s="7"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="2:20">
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -10377,7 +10377,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="2:20">
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -10398,7 +10398,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="2:20">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -10419,7 +10419,7 @@
       <c r="S54" s="7"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="2:20">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -10440,7 +10440,7 @@
       <c r="S55" s="7"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="2:20" ht="315.75" customHeight="1">
+    <row r="56" spans="2:20" ht="315.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -10461,7 +10461,7 @@
       <c r="S56" s="7"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="2:20" ht="306" customHeight="1">
+    <row r="57" spans="2:20" ht="306" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -10482,7 +10482,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="11"/>
     </row>
-    <row r="59" spans="2:20">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="13" t="s">
         <v>34</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="S59" s="3"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="2:20">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -10526,7 +10526,7 @@
       <c r="S60" s="7"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="2:20">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -10547,7 +10547,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="2:20">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -10568,7 +10568,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="2:20">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -10589,7 +10589,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="2:20">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -10610,7 +10610,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="2:20">
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -10631,7 +10631,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="2:20">
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -10652,7 +10652,7 @@
       <c r="S66" s="7"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="2:20">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -10673,7 +10673,7 @@
       <c r="S67" s="7"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="2:20">
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -10694,7 +10694,7 @@
       <c r="S68" s="7"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="2:20">
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -10715,7 +10715,7 @@
       <c r="S69" s="7"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="2:20">
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -10736,7 +10736,7 @@
       <c r="S70" s="7"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="2:20">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -10757,7 +10757,7 @@
       <c r="S71" s="7"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="2:20">
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -10778,7 +10778,7 @@
       <c r="S72" s="7"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="2:20">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -10799,7 +10799,7 @@
       <c r="S73" s="7"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="2:20">
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -10820,7 +10820,7 @@
       <c r="S74" s="7"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="2:20">
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -10841,7 +10841,7 @@
       <c r="S75" s="7"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="2:20">
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -10862,7 +10862,7 @@
       <c r="S76" s="7"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="2:20">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -10883,7 +10883,7 @@
       <c r="S77" s="7"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="2:20">
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -10904,7 +10904,7 @@
       <c r="S78" s="7"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="2:20">
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -10925,7 +10925,7 @@
       <c r="S79" s="7"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="2:20">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B80" s="5"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -10946,7 +10946,7 @@
       <c r="S80" s="7"/>
       <c r="T80" s="8"/>
     </row>
-    <row r="81" spans="2:20">
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B81" s="5"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -10967,7 +10967,7 @@
       <c r="S81" s="7"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" spans="2:20">
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B82" s="5"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -10988,7 +10988,7 @@
       <c r="S82" s="7"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="2:20">
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -11009,7 +11009,7 @@
       <c r="S83" s="7"/>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" spans="2:20">
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B84" s="5"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -11030,7 +11030,7 @@
       <c r="S84" s="7"/>
       <c r="T84" s="8"/>
     </row>
-    <row r="85" spans="2:20">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -11051,7 +11051,7 @@
       <c r="S85" s="7"/>
       <c r="T85" s="8"/>
     </row>
-    <row r="86" spans="2:20">
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B86" s="5"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -11072,7 +11072,7 @@
       <c r="S86" s="7"/>
       <c r="T86" s="8"/>
     </row>
-    <row r="87" spans="2:20">
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -11093,7 +11093,7 @@
       <c r="S87" s="7"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="2:20">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B88" s="5"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -11114,7 +11114,7 @@
       <c r="S88" s="7"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="2:20">
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -11135,7 +11135,7 @@
       <c r="S89" s="7"/>
       <c r="T89" s="8"/>
     </row>
-    <row r="90" spans="2:20">
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B90" s="5"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -11156,7 +11156,7 @@
       <c r="S90" s="7"/>
       <c r="T90" s="8"/>
     </row>
-    <row r="91" spans="2:20">
+    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -11177,7 +11177,7 @@
       <c r="S91" s="7"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="2:20">
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>

--- a/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
+++ b/Moudle 6 Deliverables/DRAFT - Test Steps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giuseppevaccaro/Documents/GitHub/CS633---Term-Project/Moudle 6 Deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04A872E-9968-0D4D-84D8-BA732FA21DB3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982C793F-7B1B-8B47-B700-DEE7D4BA8194}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" tabRatio="743" activeTab="5" xr2:uid="{899C0D2E-80B1-AE45-A5B3-8AC8948BE8B6}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="15940" tabRatio="743" xr2:uid="{899C0D2E-80B1-AE45-A5B3-8AC8948BE8B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Create Account (NEG)" sheetId="6" r:id="rId1"/>
@@ -524,42 +524,6 @@
   </si>
   <si>
     <r>
-      <t>Step 1, 2, 3, 4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">:Ignoring the parameters and creating a username with 176 characters and a password that was common (password), account creation has failed. For evidence, please see table </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Create Account-Log In.Evidence</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, Step 6.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -773,12 +737,48 @@
 </t>
     </r>
   </si>
+  <si>
+    <r>
+      <t>Step 1, 2, 3, 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:Ignoring the parameters and creating a username with 176 characters and a password that was common (password), account creation has failed. For evidence, please see table </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create Account-Log In.Evidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Step 1-4.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1012,26 +1012,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1041,6 +1035,12 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1852,428 +1852,426 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D51C85CF-D4EE-C84C-AB64-F1A36383887E}">
   <dimension ref="B2:Q101"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="60" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85:Q98"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:17">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="22">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="20">
         <v>1</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="23">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="21">
         <v>43155</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" ht="42.75" customHeight="1">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="15" t="s">
         <v>22</v>
       </c>
@@ -2290,10 +2288,10 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+    <row r="24" spans="2:17">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -2308,10 +2306,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+    <row r="25" spans="2:17">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -2326,68 +2324,68 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:17">
+      <c r="B26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="15" t="s">
         <v>23</v>
       </c>
@@ -2404,10 +2402,10 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+    <row r="30" spans="2:17">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -2422,10 +2420,10 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+    <row r="31" spans="2:17">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -2440,10 +2438,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+    <row r="32" spans="2:17">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -2458,10 +2456,10 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+    <row r="33" spans="2:17">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -2476,10 +2474,10 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+    <row r="34" spans="2:17">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -2494,10 +2492,10 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+    <row r="35" spans="2:17">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -2512,10 +2510,10 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+    <row r="36" spans="2:17">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -2530,10 +2528,10 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+    <row r="37" spans="2:17">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -2548,10 +2546,10 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+    <row r="38" spans="2:17">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -2566,10 +2564,10 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+    <row r="39" spans="2:17">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -2584,10 +2582,10 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+    <row r="40" spans="2:17">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -2602,10 +2600,10 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+    <row r="41" spans="2:17">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -2620,10 +2618,10 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+    <row r="42" spans="2:17">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -2638,10 +2636,10 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+    <row r="43" spans="2:17">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -2656,10 +2654,10 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+    <row r="44" spans="2:17">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -2674,10 +2672,10 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+    <row r="45" spans="2:17">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -2692,10 +2690,10 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+    <row r="46" spans="2:17">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -2710,10 +2708,10 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+    <row r="47" spans="2:17">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -2728,10 +2726,10 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+    <row r="48" spans="2:17">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -2746,10 +2744,10 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+    <row r="49" spans="2:17">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -2764,10 +2762,10 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+    <row r="50" spans="2:17">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -2782,10 +2780,10 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+    <row r="51" spans="2:17">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -2800,10 +2798,10 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+    <row r="52" spans="2:17">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -2818,10 +2816,10 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+    <row r="53" spans="2:17">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -2836,12 +2834,12 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="2:17">
+      <c r="B54" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="15" t="s">
         <v>38</v>
       </c>
@@ -2858,10 +2856,10 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+    <row r="55" spans="2:17">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -2876,10 +2874,10 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+    <row r="56" spans="2:17">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -2894,10 +2892,10 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+    <row r="57" spans="2:17">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -2912,10 +2910,10 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+    <row r="58" spans="2:17">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -2930,10 +2928,10 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+    <row r="59" spans="2:17">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -2948,10 +2946,10 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+    <row r="60" spans="2:17">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -2966,10 +2964,10 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+    <row r="61" spans="2:17">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -2984,10 +2982,10 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+    <row r="62" spans="2:17">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -3002,10 +3000,10 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+    <row r="63" spans="2:17">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -3020,10 +3018,10 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+    <row r="64" spans="2:17">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -3038,10 +3036,10 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+    <row r="65" spans="2:17">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -3056,10 +3054,10 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+    <row r="66" spans="2:17">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -3074,10 +3072,10 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+    <row r="67" spans="2:17">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -3092,12 +3090,12 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="14" t="s">
+    <row r="68" spans="2:17">
+      <c r="B68" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="15" t="s">
         <v>39</v>
       </c>
@@ -3114,10 +3112,10 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+    <row r="69" spans="2:17">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -3132,10 +3130,10 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+    <row r="70" spans="2:17">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -3150,10 +3148,10 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+    <row r="71" spans="2:17">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -3168,10 +3166,10 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+    <row r="72" spans="2:17">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -3186,10 +3184,10 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+    <row r="73" spans="2:17">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -3204,10 +3202,10 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+    <row r="74" spans="2:17">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -3222,10 +3220,10 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+    <row r="75" spans="2:17">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -3240,10 +3238,10 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+    <row r="76" spans="2:17">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -3258,10 +3256,10 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+    <row r="77" spans="2:17">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -3276,10 +3274,10 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+    <row r="78" spans="2:17">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -3294,10 +3292,10 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+    <row r="79" spans="2:17">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -3312,10 +3310,10 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+    <row r="80" spans="2:17">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -3330,10 +3328,10 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+    <row r="81" spans="2:17">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -3348,324 +3346,324 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="16" t="s">
+    <row r="82" spans="2:17">
+      <c r="B82" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="14" t="s">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="17" t="s">
-        <v>40</v>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="23" t="s">
+        <v>43</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B99" s="18" t="s">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="15" t="s">
         <v>21</v>
       </c>
@@ -3682,10 +3680,10 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+    <row r="100" spans="2:17">
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -3700,10 +3698,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+    <row r="101" spans="2:17">
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -3720,6 +3718,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B99:D101"/>
+    <mergeCell ref="E99:Q101"/>
+    <mergeCell ref="B23:D25"/>
+    <mergeCell ref="E23:Q25"/>
+    <mergeCell ref="B26:Q28"/>
+    <mergeCell ref="B29:D53"/>
+    <mergeCell ref="E29:Q53"/>
+    <mergeCell ref="B54:D67"/>
+    <mergeCell ref="E54:Q67"/>
+    <mergeCell ref="B68:D81"/>
+    <mergeCell ref="E68:Q81"/>
+    <mergeCell ref="B82:Q84"/>
+    <mergeCell ref="B85:D98"/>
+    <mergeCell ref="E85:Q98"/>
     <mergeCell ref="B20:D22"/>
     <mergeCell ref="E20:Q22"/>
     <mergeCell ref="B2:Q4"/>
@@ -3734,20 +3746,6 @@
     <mergeCell ref="B14:D16"/>
     <mergeCell ref="E14:Q16"/>
     <mergeCell ref="B17:Q19"/>
-    <mergeCell ref="B99:D101"/>
-    <mergeCell ref="E99:Q101"/>
-    <mergeCell ref="B23:D25"/>
-    <mergeCell ref="E23:Q25"/>
-    <mergeCell ref="B26:Q28"/>
-    <mergeCell ref="B29:D53"/>
-    <mergeCell ref="E29:Q53"/>
-    <mergeCell ref="B54:D67"/>
-    <mergeCell ref="E54:Q67"/>
-    <mergeCell ref="B68:D81"/>
-    <mergeCell ref="E68:Q81"/>
-    <mergeCell ref="B82:Q84"/>
-    <mergeCell ref="B85:D98"/>
-    <mergeCell ref="E85:Q98"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:Q16">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -3770,14 +3768,14 @@
       <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -3798,7 +3796,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>37</v>
@@ -3821,7 +3819,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -3842,7 +3840,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -3863,7 +3861,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -3884,7 +3882,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -3905,7 +3903,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -3926,7 +3924,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -3947,7 +3945,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -3968,7 +3966,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -3989,7 +3987,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -4010,7 +4008,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -4031,7 +4029,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -4052,7 +4050,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -4073,7 +4071,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -4094,7 +4092,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -4115,7 +4113,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -4136,7 +4134,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -4157,7 +4155,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -4178,7 +4176,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -4199,7 +4197,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -4220,7 +4218,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -4241,7 +4239,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -4262,7 +4260,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -4283,7 +4281,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -4304,7 +4302,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20" ht="409" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -4325,7 +4323,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -4356,428 +4354,428 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F8FB6F-9DA0-8A4F-82AF-6B6ADDDC0675}">
   <dimension ref="B2:Q101"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G10"/>
+    <sheetView topLeftCell="A46" zoomScale="64" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="16" t="s">
+    <row r="2" spans="2:17">
+      <c r="B2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-    </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B5" s="14" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="22">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="20">
         <v>2</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="14" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="23">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="21">
         <v>43155</v>
       </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="20" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="14" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="20" t="s">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B17" s="16" t="s">
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17">
+      <c r="B17" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16"/>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="16"/>
-    </row>
-    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="16"/>
-    </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B20" s="19" t="s">
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-    </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-    </row>
-    <row r="22" spans="2:17" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="19" t="s">
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" ht="42.75" customHeight="1">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17">
+      <c r="B23" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="15" t="s">
         <v>22</v>
       </c>
@@ -4794,10 +4792,10 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+    <row r="24" spans="2:17">
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
@@ -4812,10 +4810,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+    <row r="25" spans="2:17">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -4830,68 +4828,68 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B26" s="16" t="s">
+    <row r="26" spans="2:17">
+      <c r="B26" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-    </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B29" s="14" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
       <c r="E29" s="15" t="s">
         <v>23</v>
       </c>
@@ -4908,10 +4906,10 @@
       <c r="P29" s="15"/>
       <c r="Q29" s="15"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
+    <row r="30" spans="2:17">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="15"/>
@@ -4926,10 +4924,10 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
+    <row r="31" spans="2:17">
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -4944,10 +4942,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
+    <row r="32" spans="2:17">
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -4962,10 +4960,10 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
+    <row r="33" spans="2:17">
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -4980,10 +4978,10 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+    <row r="34" spans="2:17">
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -4998,10 +4996,10 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+    <row r="35" spans="2:17">
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -5016,10 +5014,10 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+    <row r="36" spans="2:17">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -5034,10 +5032,10 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+    <row r="37" spans="2:17">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -5052,10 +5050,10 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+    <row r="38" spans="2:17">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -5070,10 +5068,10 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
+    <row r="39" spans="2:17">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -5088,10 +5086,10 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+    <row r="40" spans="2:17">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -5106,10 +5104,10 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
+    <row r="41" spans="2:17">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -5124,10 +5122,10 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
+    <row r="42" spans="2:17">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -5142,10 +5140,10 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
+    <row r="43" spans="2:17">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -5160,10 +5158,10 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
+    <row r="44" spans="2:17">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -5178,10 +5176,10 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
+    <row r="45" spans="2:17">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -5196,10 +5194,10 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
+    <row r="46" spans="2:17">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -5214,10 +5212,10 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
+    <row r="47" spans="2:17">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -5232,10 +5230,10 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
+    <row r="48" spans="2:17">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -5250,10 +5248,10 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
+    <row r="49" spans="2:17">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -5268,10 +5266,10 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="14"/>
+    <row r="50" spans="2:17">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -5286,10 +5284,10 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
+    <row r="51" spans="2:17">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -5304,10 +5302,10 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="14"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
+    <row r="52" spans="2:17">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -5322,10 +5320,10 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="14"/>
+    <row r="53" spans="2:17">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -5340,14 +5338,14 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B54" s="14" t="s">
+    <row r="54" spans="2:17">
+      <c r="B54" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
       <c r="E54" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -5362,10 +5360,10 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="14"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="14"/>
+    <row r="55" spans="2:17">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
       <c r="E55" s="15"/>
       <c r="F55" s="15"/>
       <c r="G55" s="15"/>
@@ -5380,10 +5378,10 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
+    <row r="56" spans="2:17">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -5398,10 +5396,10 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="14"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="14"/>
+    <row r="57" spans="2:17">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -5416,10 +5414,10 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B58" s="14"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="14"/>
+    <row r="58" spans="2:17">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -5434,10 +5432,10 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B59" s="14"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
+    <row r="59" spans="2:17">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -5452,10 +5450,10 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
+    <row r="60" spans="2:17">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -5470,10 +5468,10 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
+    <row r="61" spans="2:17">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -5488,10 +5486,10 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="14"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
+    <row r="62" spans="2:17">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -5506,10 +5504,10 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
+    <row r="63" spans="2:17">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -5524,10 +5522,10 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B64" s="14"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
+    <row r="64" spans="2:17">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -5542,10 +5540,10 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
+    <row r="65" spans="2:17">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -5560,10 +5558,10 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
+    <row r="66" spans="2:17">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -5578,10 +5576,10 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B67" s="14"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="14"/>
+    <row r="67" spans="2:17">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -5596,14 +5594,14 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B68" s="14" t="s">
+    <row r="68" spans="2:17">
+      <c r="B68" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="14"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -5618,10 +5616,10 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="14"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
+    <row r="69" spans="2:17">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
       <c r="E69" s="15"/>
       <c r="F69" s="15"/>
       <c r="G69" s="15"/>
@@ -5636,10 +5634,10 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
+    <row r="70" spans="2:17">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -5654,10 +5652,10 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B71" s="14"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="14"/>
+    <row r="71" spans="2:17">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -5672,10 +5670,10 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="14"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="14"/>
+    <row r="72" spans="2:17">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -5690,10 +5688,10 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+    <row r="73" spans="2:17">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -5708,10 +5706,10 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B74" s="14"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+    <row r="74" spans="2:17">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -5726,10 +5724,10 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+    <row r="75" spans="2:17">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -5744,10 +5742,10 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B76" s="14"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+    <row r="76" spans="2:17">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -5762,10 +5760,10 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B77" s="14"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+    <row r="77" spans="2:17">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -5780,10 +5778,10 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B78" s="14"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+    <row r="78" spans="2:17">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -5798,10 +5796,10 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B79" s="14"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+    <row r="79" spans="2:17">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -5816,10 +5814,10 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B80" s="14"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+    <row r="80" spans="2:17">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -5834,10 +5832,10 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B81" s="14"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+    <row r="81" spans="2:17">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -5852,324 +5850,324 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B82" s="16" t="s">
+    <row r="82" spans="2:17">
+      <c r="B82" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="16"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
-      <c r="N82" s="16"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="16"/>
-      <c r="Q82" s="16"/>
-    </row>
-    <row r="83" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="16"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
-      <c r="N83" s="16"/>
-      <c r="O83" s="16"/>
-      <c r="P83" s="16"/>
-      <c r="Q83" s="16"/>
-    </row>
-    <row r="84" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="16"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
-      <c r="N84" s="16"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="16"/>
-      <c r="Q84" s="16"/>
-    </row>
-    <row r="85" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B85" s="14" t="s">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="17"/>
+      <c r="L82" s="17"/>
+      <c r="M82" s="17"/>
+      <c r="N82" s="17"/>
+      <c r="O82" s="17"/>
+      <c r="P82" s="17"/>
+      <c r="Q82" s="17"/>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="17"/>
+      <c r="L83" s="17"/>
+      <c r="M83" s="17"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+    </row>
+    <row r="85" spans="2:17">
+      <c r="B85" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="17" t="s">
-        <v>43</v>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="23" t="s">
+        <v>42</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
-    </row>
-    <row r="86" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
-    </row>
-    <row r="87" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B87" s="14"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="17"/>
-      <c r="M87" s="17"/>
-      <c r="N87" s="17"/>
-      <c r="O87" s="17"/>
-      <c r="P87" s="17"/>
-      <c r="Q87" s="17"/>
-    </row>
-    <row r="88" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
-      <c r="P88" s="17"/>
-      <c r="Q88" s="17"/>
-    </row>
-    <row r="89" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
-    </row>
-    <row r="90" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="17"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
-      <c r="O90" s="17"/>
-      <c r="P90" s="17"/>
-      <c r="Q90" s="17"/>
-    </row>
-    <row r="91" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
-    </row>
-    <row r="92" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B92" s="14"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
-      <c r="P92" s="17"/>
-      <c r="Q92" s="17"/>
-    </row>
-    <row r="93" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="17"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="17"/>
-      <c r="O93" s="17"/>
-      <c r="P93" s="17"/>
-      <c r="Q93" s="17"/>
-    </row>
-    <row r="94" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
-    </row>
-    <row r="95" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
-    </row>
-    <row r="96" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
-    </row>
-    <row r="97" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
-    </row>
-    <row r="98" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="17"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
-      <c r="O98" s="17"/>
-      <c r="P98" s="17"/>
-      <c r="Q98" s="17"/>
-    </row>
-    <row r="99" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B99" s="18" t="s">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="23"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="23"/>
+    </row>
+    <row r="86" spans="2:17">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="23"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="23"/>
+    </row>
+    <row r="87" spans="2:17">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="23"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="23"/>
+    </row>
+    <row r="88" spans="2:17">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="N88" s="23"/>
+      <c r="O88" s="23"/>
+      <c r="P88" s="23"/>
+      <c r="Q88" s="23"/>
+    </row>
+    <row r="89" spans="2:17">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="N89" s="23"/>
+      <c r="O89" s="23"/>
+      <c r="P89" s="23"/>
+      <c r="Q89" s="23"/>
+    </row>
+    <row r="90" spans="2:17">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="23"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="23"/>
+    </row>
+    <row r="91" spans="2:17">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="23"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="23"/>
+    </row>
+    <row r="92" spans="2:17">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="23"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="23"/>
+    </row>
+    <row r="93" spans="2:17">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
+      <c r="N93" s="23"/>
+      <c r="O93" s="23"/>
+      <c r="P93" s="23"/>
+      <c r="Q93" s="23"/>
+    </row>
+    <row r="94" spans="2:17">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="23"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="23"/>
+    </row>
+    <row r="95" spans="2:17">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="23"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="23"/>
+    </row>
+    <row r="96" spans="2:17">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="23"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="23"/>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="N97" s="23"/>
+      <c r="O97" s="23"/>
+      <c r="P97" s="23"/>
+      <c r="Q97" s="23"/>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="23"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="23"/>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="15" t="s">
         <v>21</v>
       </c>
@@ -6186,10 +6184,10 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+    <row r="100" spans="2:17">
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="15"/>
       <c r="F100" s="15"/>
       <c r="G100" s="15"/>
@@ -6204,10 +6202,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+    <row r="101" spans="2:17">
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -6224,6 +6222,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B99:D101"/>
+    <mergeCell ref="E99:Q101"/>
+    <mergeCell ref="B23:D25"/>
+    <mergeCell ref="E23:Q25"/>
+    <mergeCell ref="B26:Q28"/>
+    <mergeCell ref="B29:D53"/>
+    <mergeCell ref="E29:Q53"/>
+    <mergeCell ref="B54:D67"/>
+    <mergeCell ref="E54:Q67"/>
+    <mergeCell ref="B68:D81"/>
+    <mergeCell ref="E68:Q81"/>
+    <mergeCell ref="B82:Q84"/>
+    <mergeCell ref="B85:D98"/>
+    <mergeCell ref="E85:Q98"/>
     <mergeCell ref="B20:D22"/>
     <mergeCell ref="E20:Q22"/>
     <mergeCell ref="B2:Q4"/>
@@ -6238,20 +6250,6 @@
     <mergeCell ref="B14:D16"/>
     <mergeCell ref="E14:Q16"/>
     <mergeCell ref="B17:Q19"/>
-    <mergeCell ref="B99:D101"/>
-    <mergeCell ref="E99:Q101"/>
-    <mergeCell ref="B23:D25"/>
-    <mergeCell ref="E23:Q25"/>
-    <mergeCell ref="B26:Q28"/>
-    <mergeCell ref="B29:D53"/>
-    <mergeCell ref="E29:Q53"/>
-    <mergeCell ref="B54:D67"/>
-    <mergeCell ref="E54:Q67"/>
-    <mergeCell ref="B68:D81"/>
-    <mergeCell ref="E68:Q81"/>
-    <mergeCell ref="B82:Q84"/>
-    <mergeCell ref="B85:D98"/>
-    <mergeCell ref="E85:Q98"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:Q16">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
@@ -6274,14 +6272,14 @@
       <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6302,7 +6300,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>17</v>
@@ -6325,7 +6323,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -6346,7 +6344,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -6367,7 +6365,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -6388,7 +6386,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -6409,7 +6407,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -6430,7 +6428,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -6451,7 +6449,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -6472,7 +6470,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -6493,7 +6491,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -6514,7 +6512,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -6535,7 +6533,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -6556,7 +6554,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -6577,7 +6575,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -6598,7 +6596,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -6619,7 +6617,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -6640,7 +6638,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -6661,7 +6659,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -6682,7 +6680,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -6703,7 +6701,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -6724,7 +6722,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -6745,7 +6743,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -6766,7 +6764,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -6787,7 +6785,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -6808,7 +6806,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20">
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -6829,7 +6827,7 @@
       <c r="S27" s="10"/>
       <c r="T27" s="11"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20">
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -6850,7 +6848,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
     </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20">
       <c r="B29" s="2"/>
       <c r="C29" s="12" t="s">
         <v>18</v>
@@ -6872,7 +6870,7 @@
       <c r="R29" s="3"/>
       <c r="S29" s="4"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -6892,7 +6890,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="8"/>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20">
       <c r="B31" s="5"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -6912,7 +6910,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="8"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:20">
       <c r="B32" s="5"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -6932,7 +6930,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="8"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19">
       <c r="B33" s="5"/>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -6952,7 +6950,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="8"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -6972,7 +6970,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="8"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -6992,7 +6990,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="8"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -7012,7 +7010,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="8"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -7032,7 +7030,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="8"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -7052,7 +7050,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="8"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -7072,7 +7070,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="8"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:19">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -7092,7 +7090,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="8"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:19">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -7112,7 +7110,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="8"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -7132,7 +7130,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="8"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -7152,7 +7150,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="8"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -7172,7 +7170,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="8"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -7192,7 +7190,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="8"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -7212,7 +7210,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="8"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -7232,7 +7230,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="8"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -7252,7 +7250,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="8"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:19">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -7272,7 +7270,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="8"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:19">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -7292,7 +7290,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="8"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:19">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -7312,7 +7310,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="8"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:19">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -7332,7 +7330,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="8"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:19">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -7352,7 +7350,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="8"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:19">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -7372,7 +7370,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="8"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:19">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -7402,15 +7400,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC42612-5A39-284C-8C7A-1522FAA2D225}">
   <dimension ref="B3:Q102"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="61" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:Q8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3.1640625" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:17">
       <c r="B3" s="24" t="s">
         <v>11</v>
       </c>
@@ -7430,7 +7430,7 @@
       <c r="P3" s="24"/>
       <c r="Q3" s="24"/>
     </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:17">
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
@@ -7448,7 +7448,7 @@
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
     </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17">
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
@@ -7466,12 +7466,12 @@
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
     </row>
-    <row r="6" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B6" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="25" t="s">
         <v>16</v>
       </c>
@@ -7488,10 +7488,10 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
     </row>
-    <row r="7" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
+    <row r="7" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
@@ -7506,10 +7506,10 @@
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
     </row>
-    <row r="8" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
+    <row r="8" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
@@ -7524,22 +7524,22 @@
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
     </row>
-    <row r="9" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="18" t="s">
+    <row r="9" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="26">
         <v>3</v>
       </c>
       <c r="F9" s="26"/>
       <c r="G9" s="26"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="27">
         <v>43155</v>
       </c>
@@ -7550,16 +7550,16 @@
       <c r="P9" s="26"/>
       <c r="Q9" s="26"/>
     </row>
-    <row r="10" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+    <row r="10" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="26"/>
       <c r="F10" s="26"/>
       <c r="G10" s="26"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
       <c r="M10" s="26"/>
@@ -7568,16 +7568,16 @@
       <c r="P10" s="26"/>
       <c r="Q10" s="26"/>
     </row>
-    <row r="11" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+    <row r="11" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
       <c r="E11" s="26"/>
       <c r="F11" s="26"/>
       <c r="G11" s="26"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="26"/>
       <c r="L11" s="26"/>
       <c r="M11" s="26"/>
@@ -7586,12 +7586,12 @@
       <c r="P11" s="26"/>
       <c r="Q11" s="26"/>
     </row>
-    <row r="12" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="18" t="s">
+    <row r="12" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B12" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
       <c r="E12" s="15" t="s">
         <v>25</v>
       </c>
@@ -7608,10 +7608,10 @@
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
     </row>
-    <row r="13" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+    <row r="13" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -7626,10 +7626,10 @@
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
     </row>
-    <row r="14" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
+    <row r="14" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -7644,12 +7644,12 @@
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
     </row>
-    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="18" t="s">
+    <row r="15" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="15" t="s">
         <v>20</v>
       </c>
@@ -7666,10 +7666,10 @@
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
     </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
+    <row r="16" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -7684,10 +7684,10 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
     </row>
-    <row r="17" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
+    <row r="17" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="15"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
@@ -7702,7 +7702,7 @@
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
     </row>
-    <row r="18" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:17" ht="15.75" customHeight="1">
       <c r="B18" s="24" t="s">
         <v>12</v>
       </c>
@@ -7722,7 +7722,7 @@
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
     </row>
-    <row r="19" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" ht="15.75" customHeight="1">
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
@@ -7740,7 +7740,7 @@
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
     </row>
-    <row r="20" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:17" ht="15.75" customHeight="1">
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
@@ -7758,12 +7758,12 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
     </row>
-    <row r="21" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="19" t="s">
+    <row r="21" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="15" t="s">
         <v>26</v>
       </c>
@@ -7780,10 +7780,10 @@
       <c r="P21" s="15"/>
       <c r="Q21" s="15"/>
     </row>
-    <row r="22" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
+    <row r="22" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
@@ -7798,10 +7798,10 @@
       <c r="P22" s="15"/>
       <c r="Q22" s="15"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+    <row r="23" spans="2:17">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -7816,12 +7816,12 @@
       <c r="P23" s="15"/>
       <c r="Q23" s="15"/>
     </row>
-    <row r="24" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="19" t="s">
+    <row r="24" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="15" t="s">
         <v>27</v>
       </c>
@@ -7838,10 +7838,10 @@
       <c r="P24" s="15"/>
       <c r="Q24" s="15"/>
     </row>
-    <row r="25" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
+    <row r="25" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
       <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
@@ -7856,10 +7856,10 @@
       <c r="P25" s="15"/>
       <c r="Q25" s="15"/>
     </row>
-    <row r="26" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
+    <row r="26" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
@@ -7874,7 +7874,7 @@
       <c r="P26" s="15"/>
       <c r="Q26" s="15"/>
     </row>
-    <row r="27" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" ht="15.75" customHeight="1">
       <c r="B27" s="24" t="s">
         <v>14</v>
       </c>
@@ -7894,7 +7894,7 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="24"/>
     </row>
-    <row r="28" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" ht="15.75" customHeight="1">
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
@@ -7912,7 +7912,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="24"/>
     </row>
-    <row r="29" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" ht="15.75" customHeight="1">
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
@@ -7930,12 +7930,12 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="24"/>
     </row>
-    <row r="30" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="18" t="s">
+    <row r="30" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B30" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
       <c r="E30" s="15" t="s">
         <v>28</v>
       </c>
@@ -7952,10 +7952,10 @@
       <c r="P30" s="15"/>
       <c r="Q30" s="15"/>
     </row>
-    <row r="31" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
+    <row r="31" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
       <c r="E31" s="15"/>
       <c r="F31" s="15"/>
       <c r="G31" s="15"/>
@@ -7970,10 +7970,10 @@
       <c r="P31" s="15"/>
       <c r="Q31" s="15"/>
     </row>
-    <row r="32" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+    <row r="32" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
@@ -7988,10 +7988,10 @@
       <c r="P32" s="15"/>
       <c r="Q32" s="15"/>
     </row>
-    <row r="33" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
+    <row r="33" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
@@ -8006,10 +8006,10 @@
       <c r="P33" s="15"/>
       <c r="Q33" s="15"/>
     </row>
-    <row r="34" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
+    <row r="34" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
@@ -8024,10 +8024,10 @@
       <c r="P34" s="15"/>
       <c r="Q34" s="15"/>
     </row>
-    <row r="35" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
+    <row r="35" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
@@ -8042,10 +8042,10 @@
       <c r="P35" s="15"/>
       <c r="Q35" s="15"/>
     </row>
-    <row r="36" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
+    <row r="36" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
@@ -8060,10 +8060,10 @@
       <c r="P36" s="15"/>
       <c r="Q36" s="15"/>
     </row>
-    <row r="37" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+    <row r="37" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
@@ -8078,10 +8078,10 @@
       <c r="P37" s="15"/>
       <c r="Q37" s="15"/>
     </row>
-    <row r="38" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+    <row r="38" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
@@ -8096,10 +8096,10 @@
       <c r="P38" s="15"/>
       <c r="Q38" s="15"/>
     </row>
-    <row r="39" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+    <row r="39" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -8114,10 +8114,10 @@
       <c r="P39" s="15"/>
       <c r="Q39" s="15"/>
     </row>
-    <row r="40" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
+    <row r="40" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
@@ -8132,10 +8132,10 @@
       <c r="P40" s="15"/>
       <c r="Q40" s="15"/>
     </row>
-    <row r="41" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
+    <row r="41" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
@@ -8150,10 +8150,10 @@
       <c r="P41" s="15"/>
       <c r="Q41" s="15"/>
     </row>
-    <row r="42" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
+    <row r="42" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
@@ -8168,10 +8168,10 @@
       <c r="P42" s="15"/>
       <c r="Q42" s="15"/>
     </row>
-    <row r="43" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
+    <row r="43" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
@@ -8186,10 +8186,10 @@
       <c r="P43" s="15"/>
       <c r="Q43" s="15"/>
     </row>
-    <row r="44" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
+    <row r="44" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
@@ -8204,10 +8204,10 @@
       <c r="P44" s="15"/>
       <c r="Q44" s="15"/>
     </row>
-    <row r="45" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
+    <row r="45" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -8222,10 +8222,10 @@
       <c r="P45" s="15"/>
       <c r="Q45" s="15"/>
     </row>
-    <row r="46" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
+    <row r="46" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
@@ -8240,10 +8240,10 @@
       <c r="P46" s="15"/>
       <c r="Q46" s="15"/>
     </row>
-    <row r="47" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
+    <row r="47" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -8258,10 +8258,10 @@
       <c r="P47" s="15"/>
       <c r="Q47" s="15"/>
     </row>
-    <row r="48" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
+    <row r="48" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
       <c r="G48" s="15"/>
@@ -8276,10 +8276,10 @@
       <c r="P48" s="15"/>
       <c r="Q48" s="15"/>
     </row>
-    <row r="49" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
+    <row r="49" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
       <c r="E49" s="15"/>
       <c r="F49" s="15"/>
       <c r="G49" s="15"/>
@@ -8294,10 +8294,10 @@
       <c r="P49" s="15"/>
       <c r="Q49" s="15"/>
     </row>
-    <row r="50" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
+    <row r="50" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
       <c r="E50" s="15"/>
       <c r="F50" s="15"/>
       <c r="G50" s="15"/>
@@ -8312,10 +8312,10 @@
       <c r="P50" s="15"/>
       <c r="Q50" s="15"/>
     </row>
-    <row r="51" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
+    <row r="51" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
       <c r="E51" s="15"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
@@ -8330,10 +8330,10 @@
       <c r="P51" s="15"/>
       <c r="Q51" s="15"/>
     </row>
-    <row r="52" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
+    <row r="52" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
       <c r="E52" s="15"/>
       <c r="F52" s="15"/>
       <c r="G52" s="15"/>
@@ -8348,10 +8348,10 @@
       <c r="P52" s="15"/>
       <c r="Q52" s="15"/>
     </row>
-    <row r="53" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
+    <row r="53" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
       <c r="E53" s="15"/>
       <c r="F53" s="15"/>
       <c r="G53" s="15"/>
@@ -8366,10 +8366,10 @@
       <c r="P53" s="15"/>
       <c r="Q53" s="15"/>
     </row>
-    <row r="54" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
+    <row r="54" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
       <c r="E54" s="15"/>
       <c r="F54" s="15"/>
       <c r="G54" s="15"/>
@@ -8384,12 +8384,12 @@
       <c r="P54" s="15"/>
       <c r="Q54" s="15"/>
     </row>
-    <row r="55" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="18" t="s">
+    <row r="55" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B55" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
       <c r="E55" s="15" t="s">
         <v>29</v>
       </c>
@@ -8406,10 +8406,10 @@
       <c r="P55" s="15"/>
       <c r="Q55" s="15"/>
     </row>
-    <row r="56" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
+    <row r="56" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -8424,10 +8424,10 @@
       <c r="P56" s="15"/>
       <c r="Q56" s="15"/>
     </row>
-    <row r="57" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
+    <row r="57" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
       <c r="E57" s="15"/>
       <c r="F57" s="15"/>
       <c r="G57" s="15"/>
@@ -8442,10 +8442,10 @@
       <c r="P57" s="15"/>
       <c r="Q57" s="15"/>
     </row>
-    <row r="58" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
+    <row r="58" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
@@ -8460,10 +8460,10 @@
       <c r="P58" s="15"/>
       <c r="Q58" s="15"/>
     </row>
-    <row r="59" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
+    <row r="59" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
       <c r="E59" s="15"/>
       <c r="F59" s="15"/>
       <c r="G59" s="15"/>
@@ -8478,10 +8478,10 @@
       <c r="P59" s="15"/>
       <c r="Q59" s="15"/>
     </row>
-    <row r="60" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
+    <row r="60" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
       <c r="G60" s="15"/>
@@ -8496,10 +8496,10 @@
       <c r="P60" s="15"/>
       <c r="Q60" s="15"/>
     </row>
-    <row r="61" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
+    <row r="61" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
       <c r="E61" s="15"/>
       <c r="F61" s="15"/>
       <c r="G61" s="15"/>
@@ -8514,10 +8514,10 @@
       <c r="P61" s="15"/>
       <c r="Q61" s="15"/>
     </row>
-    <row r="62" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
+    <row r="62" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
       <c r="G62" s="15"/>
@@ -8532,10 +8532,10 @@
       <c r="P62" s="15"/>
       <c r="Q62" s="15"/>
     </row>
-    <row r="63" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
+    <row r="63" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
       <c r="E63" s="15"/>
       <c r="F63" s="15"/>
       <c r="G63" s="15"/>
@@ -8550,10 +8550,10 @@
       <c r="P63" s="15"/>
       <c r="Q63" s="15"/>
     </row>
-    <row r="64" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
+    <row r="64" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
@@ -8568,10 +8568,10 @@
       <c r="P64" s="15"/>
       <c r="Q64" s="15"/>
     </row>
-    <row r="65" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+    <row r="65" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
       <c r="E65" s="15"/>
       <c r="F65" s="15"/>
       <c r="G65" s="15"/>
@@ -8586,10 +8586,10 @@
       <c r="P65" s="15"/>
       <c r="Q65" s="15"/>
     </row>
-    <row r="66" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
+    <row r="66" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
       <c r="G66" s="15"/>
@@ -8604,10 +8604,10 @@
       <c r="P66" s="15"/>
       <c r="Q66" s="15"/>
     </row>
-    <row r="67" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
+    <row r="67" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="15"/>
       <c r="F67" s="15"/>
       <c r="G67" s="15"/>
@@ -8622,10 +8622,10 @@
       <c r="P67" s="15"/>
       <c r="Q67" s="15"/>
     </row>
-    <row r="68" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
+    <row r="68" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="15"/>
       <c r="F68" s="15"/>
       <c r="G68" s="15"/>
@@ -8640,12 +8640,12 @@
       <c r="P68" s="15"/>
       <c r="Q68" s="15"/>
     </row>
-    <row r="69" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="18" t="s">
+    <row r="69" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B69" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="15" t="s">
         <v>30</v>
       </c>
@@ -8662,10 +8662,10 @@
       <c r="P69" s="15"/>
       <c r="Q69" s="15"/>
     </row>
-    <row r="70" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
+    <row r="70" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
       <c r="G70" s="15"/>
@@ -8680,10 +8680,10 @@
       <c r="P70" s="15"/>
       <c r="Q70" s="15"/>
     </row>
-    <row r="71" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
+    <row r="71" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
       <c r="G71" s="15"/>
@@ -8698,10 +8698,10 @@
       <c r="P71" s="15"/>
       <c r="Q71" s="15"/>
     </row>
-    <row r="72" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
+    <row r="72" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
       <c r="G72" s="15"/>
@@ -8716,10 +8716,10 @@
       <c r="P72" s="15"/>
       <c r="Q72" s="15"/>
     </row>
-    <row r="73" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
+    <row r="73" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
       <c r="E73" s="15"/>
       <c r="F73" s="15"/>
       <c r="G73" s="15"/>
@@ -8734,10 +8734,10 @@
       <c r="P73" s="15"/>
       <c r="Q73" s="15"/>
     </row>
-    <row r="74" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
+    <row r="74" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
       <c r="G74" s="15"/>
@@ -8752,10 +8752,10 @@
       <c r="P74" s="15"/>
       <c r="Q74" s="15"/>
     </row>
-    <row r="75" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
+    <row r="75" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
       <c r="E75" s="15"/>
       <c r="F75" s="15"/>
       <c r="G75" s="15"/>
@@ -8770,10 +8770,10 @@
       <c r="P75" s="15"/>
       <c r="Q75" s="15"/>
     </row>
-    <row r="76" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
+    <row r="76" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
@@ -8788,10 +8788,10 @@
       <c r="P76" s="15"/>
       <c r="Q76" s="15"/>
     </row>
-    <row r="77" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
+    <row r="77" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
       <c r="E77" s="15"/>
       <c r="F77" s="15"/>
       <c r="G77" s="15"/>
@@ -8806,10 +8806,10 @@
       <c r="P77" s="15"/>
       <c r="Q77" s="15"/>
     </row>
-    <row r="78" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
+    <row r="78" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
       <c r="G78" s="15"/>
@@ -8824,10 +8824,10 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
+    <row r="79" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
       <c r="E79" s="15"/>
       <c r="F79" s="15"/>
       <c r="G79" s="15"/>
@@ -8842,10 +8842,10 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
+    <row r="80" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
       <c r="G80" s="15"/>
@@ -8860,10 +8860,10 @@
       <c r="P80" s="15"/>
       <c r="Q80" s="15"/>
     </row>
-    <row r="81" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
+    <row r="81" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
       <c r="E81" s="15"/>
       <c r="F81" s="15"/>
       <c r="G81" s="15"/>
@@ -8878,10 +8878,10 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
+    <row r="82" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
       <c r="E82" s="15"/>
       <c r="F82" s="15"/>
       <c r="G82" s="15"/>
@@ -8896,7 +8896,7 @@
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:17" ht="15.75" customHeight="1">
       <c r="B83" s="24" t="s">
         <v>9</v>
       </c>
@@ -8916,7 +8916,7 @@
       <c r="P83" s="24"/>
       <c r="Q83" s="24"/>
     </row>
-    <row r="84" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:17" ht="15.75" customHeight="1">
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
@@ -8934,7 +8934,7 @@
       <c r="P84" s="24"/>
       <c r="Q84" s="24"/>
     </row>
-    <row r="85" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:17" ht="15.75" customHeight="1">
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
@@ -8952,12 +8952,12 @@
       <c r="P85" s="24"/>
       <c r="Q85" s="24"/>
     </row>
-    <row r="86" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="18" t="s">
+    <row r="86" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B86" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C86" s="18"/>
-      <c r="D86" s="18"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
       <c r="E86" s="15" t="s">
         <v>33</v>
       </c>
@@ -8974,10 +8974,10 @@
       <c r="P86" s="15"/>
       <c r="Q86" s="15"/>
     </row>
-    <row r="87" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
-      <c r="D87" s="18"/>
+    <row r="87" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15"/>
       <c r="G87" s="15"/>
@@ -8992,10 +8992,10 @@
       <c r="P87" s="15"/>
       <c r="Q87" s="15"/>
     </row>
-    <row r="88" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
-      <c r="D88" s="18"/>
+    <row r="88" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
       <c r="E88" s="15"/>
       <c r="F88" s="15"/>
       <c r="G88" s="15"/>
@@ -9010,10 +9010,10 @@
       <c r="P88" s="15"/>
       <c r="Q88" s="15"/>
     </row>
-    <row r="89" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
-      <c r="D89" s="18"/>
+    <row r="89" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
       <c r="E89" s="15"/>
       <c r="F89" s="15"/>
       <c r="G89" s="15"/>
@@ -9028,10 +9028,10 @@
       <c r="P89" s="15"/>
       <c r="Q89" s="15"/>
     </row>
-    <row r="90" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
+    <row r="90" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
       <c r="E90" s="15"/>
       <c r="F90" s="15"/>
       <c r="G90" s="15"/>
@@ -9046,10 +9046,10 @@
       <c r="P90" s="15"/>
       <c r="Q90" s="15"/>
     </row>
-    <row r="91" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
+    <row r="91" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
       <c r="E91" s="15"/>
       <c r="F91" s="15"/>
       <c r="G91" s="15"/>
@@ -9064,10 +9064,10 @@
       <c r="P91" s="15"/>
       <c r="Q91" s="15"/>
     </row>
-    <row r="92" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
+    <row r="92" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
       <c r="E92" s="15"/>
       <c r="F92" s="15"/>
       <c r="G92" s="15"/>
@@ -9082,10 +9082,10 @@
       <c r="P92" s="15"/>
       <c r="Q92" s="15"/>
     </row>
-    <row r="93" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
-      <c r="D93" s="18"/>
+    <row r="93" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
       <c r="E93" s="15"/>
       <c r="F93" s="15"/>
       <c r="G93" s="15"/>
@@ -9100,10 +9100,10 @@
       <c r="P93" s="15"/>
       <c r="Q93" s="15"/>
     </row>
-    <row r="94" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
-      <c r="D94" s="18"/>
+    <row r="94" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
       <c r="E94" s="15"/>
       <c r="F94" s="15"/>
       <c r="G94" s="15"/>
@@ -9118,10 +9118,10 @@
       <c r="P94" s="15"/>
       <c r="Q94" s="15"/>
     </row>
-    <row r="95" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
-      <c r="D95" s="18"/>
+    <row r="95" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
       <c r="E95" s="15"/>
       <c r="F95" s="15"/>
       <c r="G95" s="15"/>
@@ -9136,10 +9136,10 @@
       <c r="P95" s="15"/>
       <c r="Q95" s="15"/>
     </row>
-    <row r="96" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
-      <c r="D96" s="18"/>
+    <row r="96" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
       <c r="E96" s="15"/>
       <c r="F96" s="15"/>
       <c r="G96" s="15"/>
@@ -9154,10 +9154,10 @@
       <c r="P96" s="15"/>
       <c r="Q96" s="15"/>
     </row>
-    <row r="97" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
+    <row r="97" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
       <c r="E97" s="15"/>
       <c r="F97" s="15"/>
       <c r="G97" s="15"/>
@@ -9172,10 +9172,10 @@
       <c r="P97" s="15"/>
       <c r="Q97" s="15"/>
     </row>
-    <row r="98" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18"/>
+    <row r="98" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="15"/>
       <c r="F98" s="15"/>
       <c r="G98" s="15"/>
@@ -9190,10 +9190,10 @@
       <c r="P98" s="15"/>
       <c r="Q98" s="15"/>
     </row>
-    <row r="99" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
+    <row r="99" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="15"/>
       <c r="F99" s="15"/>
       <c r="G99" s="15"/>
@@ -9208,12 +9208,12 @@
       <c r="P99" s="15"/>
       <c r="Q99" s="15"/>
     </row>
-    <row r="100" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B100" s="18" t="s">
+    <row r="100" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B100" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="15" t="s">
         <v>35</v>
       </c>
@@ -9230,10 +9230,10 @@
       <c r="P100" s="15"/>
       <c r="Q100" s="15"/>
     </row>
-    <row r="101" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B101" s="18"/>
-      <c r="C101" s="18"/>
-      <c r="D101" s="18"/>
+    <row r="101" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="15"/>
       <c r="F101" s="15"/>
       <c r="G101" s="15"/>
@@ -9248,10 +9248,10 @@
       <c r="P101" s="15"/>
       <c r="Q101" s="15"/>
     </row>
-    <row r="102" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B102" s="18"/>
-      <c r="C102" s="18"/>
-      <c r="D102" s="18"/>
+    <row r="102" spans="2:17" ht="15.75" customHeight="1">
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="15"/>
       <c r="F102" s="15"/>
       <c r="G102" s="15"/>
@@ -9268,6 +9268,20 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B100:D102"/>
+    <mergeCell ref="E100:Q102"/>
+    <mergeCell ref="B24:D26"/>
+    <mergeCell ref="E24:Q26"/>
+    <mergeCell ref="B27:Q29"/>
+    <mergeCell ref="B30:D54"/>
+    <mergeCell ref="E30:Q54"/>
+    <mergeCell ref="B55:D68"/>
+    <mergeCell ref="E55:Q68"/>
+    <mergeCell ref="B69:D82"/>
+    <mergeCell ref="E69:Q82"/>
+    <mergeCell ref="B83:Q85"/>
+    <mergeCell ref="B86:D99"/>
+    <mergeCell ref="E86:Q99"/>
     <mergeCell ref="B21:D23"/>
     <mergeCell ref="E21:Q23"/>
     <mergeCell ref="B3:Q5"/>
@@ -9282,20 +9296,6 @@
     <mergeCell ref="B15:D17"/>
     <mergeCell ref="E15:Q17"/>
     <mergeCell ref="B18:Q20"/>
-    <mergeCell ref="B100:D102"/>
-    <mergeCell ref="E100:Q102"/>
-    <mergeCell ref="B24:D26"/>
-    <mergeCell ref="E24:Q26"/>
-    <mergeCell ref="B27:Q29"/>
-    <mergeCell ref="B30:D54"/>
-    <mergeCell ref="E30:Q54"/>
-    <mergeCell ref="B55:D68"/>
-    <mergeCell ref="E55:Q68"/>
-    <mergeCell ref="B69:D82"/>
-    <mergeCell ref="E69:Q82"/>
-    <mergeCell ref="B83:Q85"/>
-    <mergeCell ref="B86:D99"/>
-    <mergeCell ref="E86:Q99"/>
   </mergeCells>
   <conditionalFormatting sqref="E15:Q17">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -9313,17 +9313,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9BF36E-D7ED-4F9F-A3EA-F7EF8EDA8FDF}">
   <dimension ref="B2:T92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O70" sqref="O70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
     <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20">
       <c r="B2" s="2"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -9344,7 +9344,7 @@
       <c r="S2" s="3"/>
       <c r="T2" s="4"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20">
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
         <v>31</v>
@@ -9367,7 +9367,7 @@
       <c r="S3" s="7"/>
       <c r="T3" s="8"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20">
       <c r="B4" s="5"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
@@ -9388,7 +9388,7 @@
       <c r="S4" s="7"/>
       <c r="T4" s="8"/>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" s="5"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
@@ -9409,7 +9409,7 @@
       <c r="S5" s="7"/>
       <c r="T5" s="8"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20">
       <c r="B6" s="5"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -9430,7 +9430,7 @@
       <c r="S6" s="7"/>
       <c r="T6" s="8"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20">
       <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -9451,7 +9451,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="8"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20">
       <c r="B8" s="5"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
@@ -9472,7 +9472,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20">
       <c r="B9" s="5"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -9493,7 +9493,7 @@
       <c r="S9" s="7"/>
       <c r="T9" s="8"/>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20">
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -9514,7 +9514,7 @@
       <c r="S10" s="7"/>
       <c r="T10" s="8"/>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20">
       <c r="B11" s="5"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -9535,7 +9535,7 @@
       <c r="S11" s="7"/>
       <c r="T11" s="8"/>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20">
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -9556,7 +9556,7 @@
       <c r="S12" s="7"/>
       <c r="T12" s="8"/>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20">
       <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -9577,7 +9577,7 @@
       <c r="S13" s="7"/>
       <c r="T13" s="8"/>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:20">
       <c r="B14" s="5"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -9598,7 +9598,7 @@
       <c r="S14" s="7"/>
       <c r="T14" s="8"/>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:20">
       <c r="B15" s="5"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -9619,7 +9619,7 @@
       <c r="S15" s="7"/>
       <c r="T15" s="8"/>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:20">
       <c r="B16" s="5"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -9640,7 +9640,7 @@
       <c r="S16" s="7"/>
       <c r="T16" s="8"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:20">
       <c r="B17" s="5"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -9661,7 +9661,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="8"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:20">
       <c r="B18" s="5"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -9682,7 +9682,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="8"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:20">
       <c r="B19" s="5"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -9703,7 +9703,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="8"/>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:20">
       <c r="B20" s="5"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -9724,7 +9724,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="8"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:20">
       <c r="B21" s="5"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -9745,7 +9745,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="8"/>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:20">
       <c r="B22" s="5"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -9766,7 +9766,7 @@
       <c r="S22" s="7"/>
       <c r="T22" s="8"/>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:20">
       <c r="B23" s="5"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -9787,7 +9787,7 @@
       <c r="S23" s="7"/>
       <c r="T23" s="8"/>
     </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:20">
       <c r="B24" s="5"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -9808,7 +9808,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="8"/>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:20">
       <c r="B25" s="5"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -9829,7 +9829,7 @@
       <c r="S25" s="7"/>
       <c r="T25" s="8"/>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:20">
       <c r="B26" s="5"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -9850,7 +9850,7 @@
       <c r="S26" s="7"/>
       <c r="T26" s="8"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:20">
       <c r="B27" s="5"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -9871,7 +9871,7 @@
       <c r="S27" s="7"/>
       <c r="T27" s="8"/>
     </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:20">
       <c r="B28" s="5"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -9892,7 +9892,7 @@
       <c r="S28" s="7"/>
       <c r="T28" s="8"/>
     </row>
-    <row r="29" spans="2:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:20" ht="66.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -9913,7 +9913,7 @@
       <c r="S29" s="7"/>
       <c r="T29" s="8"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:20">
       <c r="B30" s="5"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -9934,7 +9934,7 @@
       <c r="S30" s="7"/>
       <c r="T30" s="8"/>
     </row>
-    <row r="31" spans="2:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:20" ht="409.5" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -9955,7 +9955,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20">
       <c r="B33" s="2"/>
       <c r="C33" s="12" t="s">
         <v>32</v>
@@ -9978,7 +9978,7 @@
       <c r="S33" s="3"/>
       <c r="T33" s="4"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20">
       <c r="B34" s="5"/>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -9999,7 +9999,7 @@
       <c r="S34" s="7"/>
       <c r="T34" s="8"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20">
       <c r="B35" s="5"/>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -10020,7 +10020,7 @@
       <c r="S35" s="7"/>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20">
       <c r="B36" s="5"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -10041,7 +10041,7 @@
       <c r="S36" s="7"/>
       <c r="T36" s="8"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20">
       <c r="B37" s="5"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -10062,7 +10062,7 @@
       <c r="S37" s="7"/>
       <c r="T37" s="8"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20">
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -10083,7 +10083,7 @@
       <c r="S38" s="7"/>
       <c r="T38" s="8"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20">
       <c r="B39" s="5"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -10104,7 +10104,7 @@
       <c r="S39" s="7"/>
       <c r="T39" s="8"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20">
       <c r="B40" s="5"/>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -10125,7 +10125,7 @@
       <c r="S40" s="7"/>
       <c r="T40" s="8"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20">
       <c r="B41" s="5"/>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -10146,7 +10146,7 @@
       <c r="S41" s="7"/>
       <c r="T41" s="8"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20">
       <c r="B42" s="5"/>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -10167,7 +10167,7 @@
       <c r="S42" s="7"/>
       <c r="T42" s="8"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20">
       <c r="B43" s="5"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -10188,7 +10188,7 @@
       <c r="S43" s="7"/>
       <c r="T43" s="8"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20">
       <c r="B44" s="5"/>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -10209,7 +10209,7 @@
       <c r="S44" s="7"/>
       <c r="T44" s="8"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20">
       <c r="B45" s="5"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -10230,7 +10230,7 @@
       <c r="S45" s="7"/>
       <c r="T45" s="8"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20">
       <c r="B46" s="5"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -10251,7 +10251,7 @@
       <c r="S46" s="7"/>
       <c r="T46" s="8"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -10272,7 +10272,7 @@
       <c r="S47" s="7"/>
       <c r="T47" s="8"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -10293,7 +10293,7 @@
       <c r="S48" s="7"/>
       <c r="T48" s="8"/>
     </row>
-    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:20">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -10314,7 +10314,7 @@
       <c r="S49" s="7"/>
       <c r="T49" s="8"/>
     </row>
-    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:20">
       <c r="B50" s="5"/>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -10335,7 +10335,7 @@
       <c r="S50" s="7"/>
       <c r="T50" s="8"/>
     </row>
-    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:20">
       <c r="B51" s="5"/>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -10356,7 +10356,7 @@
       <c r="S51" s="7"/>
       <c r="T51" s="8"/>
     </row>
-    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:20">
       <c r="B52" s="5"/>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -10377,7 +10377,7 @@
       <c r="S52" s="7"/>
       <c r="T52" s="8"/>
     </row>
-    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:20">
       <c r="B53" s="5"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -10398,7 +10398,7 @@
       <c r="S53" s="7"/>
       <c r="T53" s="8"/>
     </row>
-    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20">
       <c r="B54" s="5"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -10419,7 +10419,7 @@
       <c r="S54" s="7"/>
       <c r="T54" s="8"/>
     </row>
-    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20">
       <c r="B55" s="5"/>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -10440,7 +10440,7 @@
       <c r="S55" s="7"/>
       <c r="T55" s="8"/>
     </row>
-    <row r="56" spans="2:20" ht="315.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" ht="315.75" customHeight="1">
       <c r="B56" s="5"/>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -10461,7 +10461,7 @@
       <c r="S56" s="7"/>
       <c r="T56" s="8"/>
     </row>
-    <row r="57" spans="2:20" ht="306" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" ht="306" customHeight="1">
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -10482,7 +10482,7 @@
       <c r="S57" s="10"/>
       <c r="T57" s="11"/>
     </row>
-    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20">
       <c r="B59" s="13" t="s">
         <v>34</v>
       </c>
@@ -10505,7 +10505,7 @@
       <c r="S59" s="3"/>
       <c r="T59" s="4"/>
     </row>
-    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20">
       <c r="B60" s="5"/>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -10526,7 +10526,7 @@
       <c r="S60" s="7"/>
       <c r="T60" s="8"/>
     </row>
-    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20">
       <c r="B61" s="5"/>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -10547,7 +10547,7 @@
       <c r="S61" s="7"/>
       <c r="T61" s="8"/>
     </row>
-    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20">
       <c r="B62" s="5"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -10568,7 +10568,7 @@
       <c r="S62" s="7"/>
       <c r="T62" s="8"/>
     </row>
-    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20">
       <c r="B63" s="5"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -10589,7 +10589,7 @@
       <c r="S63" s="7"/>
       <c r="T63" s="8"/>
     </row>
-    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20">
       <c r="B64" s="5"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -10610,7 +10610,7 @@
       <c r="S64" s="7"/>
       <c r="T64" s="8"/>
     </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:20">
       <c r="B65" s="5"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -10631,7 +10631,7 @@
       <c r="S65" s="7"/>
       <c r="T65" s="8"/>
     </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:20">
       <c r="B66" s="5"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -10652,7 +10652,7 @@
       <c r="S66" s="7"/>
       <c r="T66" s="8"/>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20">
       <c r="B67" s="5"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -10673,7 +10673,7 @@
       <c r="S67" s="7"/>
       <c r="T67" s="8"/>
     </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:20">
       <c r="B68" s="5"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -10694,7 +10694,7 @@
       <c r="S68" s="7"/>
       <c r="T68" s="8"/>
     </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:20">
       <c r="B69" s="5"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -10715,7 +10715,7 @@
       <c r="S69" s="7"/>
       <c r="T69" s="8"/>
     </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:20">
       <c r="B70" s="5"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -10736,7 +10736,7 @@
       <c r="S70" s="7"/>
       <c r="T70" s="8"/>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20">
       <c r="B71" s="5"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -10757,7 +10757,7 @@
       <c r="S71" s="7"/>
       <c r="T71" s="8"/>
     </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:20">
       <c r="B72" s="5"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -10778,7 +10778,7 @@
       <c r="S72" s="7"/>
       <c r="T72" s="8"/>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20">
       <c r="B73" s="5"/>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -10799,7 +10799,7 @@
       <c r="S73" s="7"/>
       <c r="T73" s="8"/>
     </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:20">
       <c r="B74" s="5"/>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -10820,7 +10820,7 @@
       <c r="S74" s="7"/>
       <c r="T74" s="8"/>
     </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:20">
       <c r="B75" s="5"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -10841,7 +10841,7 @@
       <c r="S75" s="7"/>
       <c r="T75" s="8"/>
     </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:20">
       <c r="B76" s="5"/>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -10862,7 +10862,7 @@
       <c r="S76" s="7"/>
       <c r="T76" s="8"/>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20">
       <c r="B77" s="5"/>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -10883,7 +10883,7 @@
       <c r="S77" s="7"/>
       <c r="T77" s="8"/>
     </row>
-    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:20">
       <c r="B78" s="5"/>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -10904,7 +10904,7 @@
       <c r="S78" s="7"/>
       <c r="T78" s="8"/>
     </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:20">
       <c r="B79" s="5"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -10925,7 +10925,7 @@
       <c r="S79" s="7"/>
       <c r="T79" s="8"/>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20">
       <c r="B80" s="5"/>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -10946,7 +10946,7 @@
       <c r="S80" s="7"/>
       <c r="T80" s="8"/>
     </row>
-    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:20">
       <c r="B81" s="5"/>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -10967,7 +10967,7 @@
       <c r="S81" s="7"/>
       <c r="T81" s="8"/>
     </row>
-    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:20">
       <c r="B82" s="5"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -10988,7 +10988,7 @@
       <c r="S82" s="7"/>
       <c r="T82" s="8"/>
     </row>
-    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:20">
       <c r="B83" s="5"/>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -11009,7 +11009,7 @@
       <c r="S83" s="7"/>
       <c r="T83" s="8"/>
     </row>
-    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:20">
       <c r="B84" s="5"/>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -11030,7 +11030,7 @@
       <c r="S84" s="7"/>
       <c r="T84" s="8"/>
     </row>
-    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:20">
       <c r="B85" s="5"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -11051,7 +11051,7 @@
       <c r="S85" s="7"/>
       <c r="T85" s="8"/>
     </row>
-    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:20">
       <c r="B86" s="5"/>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -11072,7 +11072,7 @@
       <c r="S86" s="7"/>
       <c r="T86" s="8"/>
     </row>
-    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:20">
       <c r="B87" s="5"/>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
@@ -11093,7 +11093,7 @@
       <c r="S87" s="7"/>
       <c r="T87" s="8"/>
     </row>
-    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:20">
       <c r="B88" s="5"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -11114,7 +11114,7 @@
       <c r="S88" s="7"/>
       <c r="T88" s="8"/>
     </row>
-    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:20">
       <c r="B89" s="5"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -11135,7 +11135,7 @@
       <c r="S89" s="7"/>
       <c r="T89" s="8"/>
     </row>
-    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:20">
       <c r="B90" s="5"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -11156,7 +11156,7 @@
       <c r="S90" s="7"/>
       <c r="T90" s="8"/>
     </row>
-    <row r="91" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:20">
       <c r="B91" s="5"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -11177,7 +11177,7 @@
       <c r="S91" s="7"/>
       <c r="T91" s="8"/>
     </row>
-    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:20">
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
